--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1350459.81964361</v>
+        <v>1345845.969871644</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11442741.15847844</v>
+        <v>10955577.07554859</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>810371.6679062997</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10781554.85410871</v>
+        <v>10981788.39749223</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.9169039459368</v>
+        <v>12.92889148616887</v>
       </c>
       <c r="H2" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.7530123241024569</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.9260532011784</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.7043385723319</v>
       </c>
       <c r="U2" t="n">
-        <v>244.2681349500555</v>
+        <v>251.1557452255192</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>46.39293851499558</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0669836643703</v>
+        <v>136.0733975638444</v>
       </c>
       <c r="H3" t="n">
-        <v>99.90681807664345</v>
+        <v>99.96876284261762</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44580843958667</v>
+        <v>45.66663787323668</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183509</v>
+        <v>21.29900499199427</v>
       </c>
       <c r="S3" t="n">
-        <v>147.9721212459916</v>
+        <v>148.0912566156104</v>
       </c>
       <c r="T3" t="n">
-        <v>195.0194028815133</v>
+        <v>195.0452553973763</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8578215810165</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -822,25 +822,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9207765545704</v>
+        <v>8.391830341353753</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>18.07600977063312</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2609479597986</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>62.58515663460762</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>55.01245280947408</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9169039459368</v>
+        <v>12.92889148616887</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>118.958190538687</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.7530123241024569</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>154.9260532011784</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>42.19433271031156</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0669836643703</v>
+        <v>136.0733975638444</v>
       </c>
       <c r="H6" t="n">
-        <v>99.90681807664345</v>
+        <v>99.96876284261762</v>
       </c>
       <c r="I6" t="n">
-        <v>45.44580843958667</v>
+        <v>45.66663787323668</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.90078060183509</v>
+        <v>21.29900499199427</v>
       </c>
       <c r="S6" t="n">
-        <v>147.9721212459916</v>
+        <v>148.0912566156104</v>
       </c>
       <c r="T6" t="n">
-        <v>195.0194028815133</v>
+        <v>195.0452553973763</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8578215810165</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1056,28 +1056,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9261537524327</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>18.07600977063312</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>192.3637925496927</v>
       </c>
       <c r="X7" t="n">
-        <v>48.9373982413606</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>172.4288515524934</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.4880739292253</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>300.4078786665683</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>206.3971597168112</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>182.0133279070673</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3024922077873</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H9" t="n">
-        <v>92.52344006174989</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I9" t="n">
-        <v>19.12450171074272</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S9" t="n">
-        <v>133.7720277432331</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T9" t="n">
-        <v>191.9379658262512</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8071041233812</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>97.89462890448225</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>129.2224443473097</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.0137000398793</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>103.9922265400504</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>100.3549099614712</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2256951695733</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,10 +1372,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>168.1161921880586</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>67.0077147539439</v>
       </c>
       <c r="F13" t="n">
-        <v>111.9187566128687</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>46.92505668332096</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>286.1060858996727</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
-        <v>9.572930271396189</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>90.2709304895283</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>200.28402920666</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.92876070256</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.555304731341</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>85.30718206554499</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
-        <v>3.524715130804225</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>119.8933480820488</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
-        <v>188.9262759540839</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7579470525623</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>29.17912693428861</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>85.15416253077973</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>72.18892913019766</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>183.2795874976587</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.9579029632437</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1915269760862</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>120.6512573180102</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>17.95257707283369</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,19 +2058,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>245.879692121444</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>26.1362719570585</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>147.7027769252548</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>54.32649042089665</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>111.5512144998715</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>172.0260335000785</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>55.52079624060383</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>135.3135037226517</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3711,25 +3711,25 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>71.60395572454081</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>151.8518831495024</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634785</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>118.4312223122544</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3951,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>142.4385057595941</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1704.478944518417</v>
+        <v>1589.779946879164</v>
       </c>
       <c r="C2" t="n">
-        <v>1704.478944518417</v>
+        <v>1220.817429938752</v>
       </c>
       <c r="D2" t="n">
-        <v>1704.478944518417</v>
+        <v>862.5517313320015</v>
       </c>
       <c r="E2" t="n">
-        <v>1318.690691920173</v>
+        <v>476.7634787337573</v>
       </c>
       <c r="F2" t="n">
-        <v>907.7047871305651</v>
+        <v>65.77757394414974</v>
       </c>
       <c r="G2" t="n">
-        <v>490.6170053669925</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="H2" t="n">
-        <v>172.393890139502</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="I2" t="n">
-        <v>52.70091953961286</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J2" t="n">
-        <v>241.3408185533492</v>
+        <v>240.350733390377</v>
       </c>
       <c r="K2" t="n">
-        <v>323.9039731279416</v>
+        <v>642.3082349403358</v>
       </c>
       <c r="L2" t="n">
-        <v>463.2326289691948</v>
+        <v>1042.407704672381</v>
       </c>
       <c r="M2" t="n">
-        <v>1094.950439952506</v>
+        <v>1227.023259395753</v>
       </c>
       <c r="N2" t="n">
-        <v>1722.258108012353</v>
+        <v>1419.239895183002</v>
       </c>
       <c r="O2" t="n">
-        <v>1960.554969866448</v>
+        <v>1964.401531937497</v>
       </c>
       <c r="P2" t="n">
-        <v>2389.870016205742</v>
+        <v>2392.009993239693</v>
       </c>
       <c r="Q2" t="n">
-        <v>2635.045976980643</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="R2" t="n">
-        <v>2635.045976980643</v>
+        <v>2635.143761215016</v>
       </c>
       <c r="S2" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="T2" t="n">
-        <v>2635.045976980643</v>
+        <v>2263.799931140763</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.310487132102</v>
+        <v>2010.107259195795</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.247599788531</v>
+        <v>1963.245705140243</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.478944518417</v>
+        <v>1963.245705140243</v>
       </c>
       <c r="X2" t="n">
-        <v>1704.478944518417</v>
+        <v>1589.779946879164</v>
       </c>
       <c r="Y2" t="n">
-        <v>1704.478944518417</v>
+        <v>1589.779946879164</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.1226039662188</v>
+        <v>966.4318812120978</v>
       </c>
       <c r="C3" t="n">
-        <v>791.6695746850918</v>
+        <v>791.9788519309708</v>
       </c>
       <c r="D3" t="n">
-        <v>642.7351650238404</v>
+        <v>643.0444422697196</v>
       </c>
       <c r="E3" t="n">
-        <v>483.4977100183849</v>
+        <v>483.8069872642641</v>
       </c>
       <c r="F3" t="n">
-        <v>336.9631520452699</v>
+        <v>337.2724292911492</v>
       </c>
       <c r="G3" t="n">
-        <v>199.5217544044917</v>
+        <v>199.8245529640338</v>
       </c>
       <c r="H3" t="n">
-        <v>98.60577654929637</v>
+        <v>98.84600463815741</v>
       </c>
       <c r="I3" t="n">
-        <v>52.70091953961286</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J3" t="n">
-        <v>52.70091953961286</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="K3" t="n">
-        <v>382.1293238454227</v>
+        <v>119.3005601895475</v>
       </c>
       <c r="L3" t="n">
-        <v>886.4908637115414</v>
+        <v>622.2833943866577</v>
       </c>
       <c r="M3" t="n">
-        <v>1527.036213178646</v>
+        <v>1261.219859367375</v>
       </c>
       <c r="N3" t="n">
-        <v>1954.183399498644</v>
+        <v>1913.606193349117</v>
       </c>
       <c r="O3" t="n">
-        <v>2503.619408251367</v>
+        <v>2461.53143255479</v>
       </c>
       <c r="P3" t="n">
-        <v>2612.309035778666</v>
+        <v>2613.977979877467</v>
       </c>
       <c r="Q3" t="n">
-        <v>2635.045976980643</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="R3" t="n">
-        <v>2613.93407738283</v>
+        <v>2614.390233267651</v>
       </c>
       <c r="S3" t="n">
-        <v>2464.467288245464</v>
+        <v>2464.803105373095</v>
       </c>
       <c r="T3" t="n">
-        <v>2267.477992405552</v>
+        <v>2267.787695880796</v>
       </c>
       <c r="U3" t="n">
-        <v>2039.339204916718</v>
+        <v>2039.648482162597</v>
       </c>
       <c r="V3" t="n">
-        <v>1804.187096684975</v>
+        <v>1804.496373930854</v>
       </c>
       <c r="W3" t="n">
-        <v>1549.949739956774</v>
+        <v>1550.259017202653</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.40751699712</v>
       </c>
       <c r="Y3" t="n">
-        <v>1134.337940986287</v>
+        <v>1134.647218232166</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>989.4182710650106</v>
+        <v>248.3894625547011</v>
       </c>
       <c r="C4" t="n">
-        <v>820.4820881371037</v>
+        <v>79.4532796267942</v>
       </c>
       <c r="D4" t="n">
-        <v>670.3654487247679</v>
+        <v>79.4532796267942</v>
       </c>
       <c r="E4" t="n">
-        <v>522.4523551423748</v>
+        <v>79.4532796267942</v>
       </c>
       <c r="F4" t="n">
-        <v>375.5624076444644</v>
+        <v>79.4532796267942</v>
       </c>
       <c r="G4" t="n">
-        <v>206.9555626398478</v>
+        <v>70.97668332239647</v>
       </c>
       <c r="H4" t="n">
-        <v>52.70091953961286</v>
+        <v>70.97668332239647</v>
       </c>
       <c r="I4" t="n">
-        <v>52.70091953961286</v>
+        <v>70.97668332239647</v>
       </c>
       <c r="J4" t="n">
-        <v>52.70091953961286</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="K4" t="n">
-        <v>153.7488491352227</v>
+        <v>153.1475318919731</v>
       </c>
       <c r="L4" t="n">
-        <v>338.581844036041</v>
+        <v>337.1890785482319</v>
       </c>
       <c r="M4" t="n">
-        <v>543.851444755279</v>
+        <v>541.6242080628142</v>
       </c>
       <c r="N4" t="n">
-        <v>749.6748095913833</v>
+        <v>746.6329435543747</v>
       </c>
       <c r="O4" t="n">
-        <v>923.7697049799822</v>
+        <v>919.9753968917072</v>
       </c>
       <c r="P4" t="n">
-        <v>1049.217281578598</v>
+        <v>1044.779129327083</v>
       </c>
       <c r="Q4" t="n">
-        <v>1052.635600998958</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="R4" t="n">
-        <v>1052.635600998958</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="S4" t="n">
-        <v>1052.635600998958</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="T4" t="n">
-        <v>1052.635600998958</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="U4" t="n">
-        <v>1052.635600998958</v>
+        <v>758.5992117351918</v>
       </c>
       <c r="V4" t="n">
-        <v>1052.635600998958</v>
+        <v>758.5992117351918</v>
       </c>
       <c r="W4" t="n">
-        <v>1052.635600998958</v>
+        <v>469.1820416982312</v>
       </c>
       <c r="X4" t="n">
-        <v>1052.635600998958</v>
+        <v>469.1820416982312</v>
       </c>
       <c r="Y4" t="n">
-        <v>989.4182710650106</v>
+        <v>248.3894625547011</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2062.744643125167</v>
+        <v>975.6792128144155</v>
       </c>
       <c r="C5" t="n">
-        <v>2062.744643125167</v>
+        <v>606.7166958740038</v>
       </c>
       <c r="D5" t="n">
-        <v>1704.478944518417</v>
+        <v>248.4509972672533</v>
       </c>
       <c r="E5" t="n">
-        <v>1318.690691920173</v>
+        <v>192.8828631162694</v>
       </c>
       <c r="F5" t="n">
-        <v>907.7047871305651</v>
+        <v>185.9373623670659</v>
       </c>
       <c r="G5" t="n">
-        <v>490.6170053669925</v>
+        <v>172.8778760174004</v>
       </c>
       <c r="H5" t="n">
-        <v>172.393890139502</v>
+        <v>172.8778760174004</v>
       </c>
       <c r="I5" t="n">
-        <v>52.70091953961286</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J5" t="n">
-        <v>73.93516953299616</v>
+        <v>72.94508437002398</v>
       </c>
       <c r="K5" t="n">
-        <v>156.4983241075885</v>
+        <v>153.9986274745297</v>
       </c>
       <c r="L5" t="n">
-        <v>709.3115823537878</v>
+        <v>704.9390792031089</v>
       </c>
       <c r="M5" t="n">
-        <v>1341.029393337099</v>
+        <v>1334.573032084385</v>
       </c>
       <c r="N5" t="n">
-        <v>1968.337061396946</v>
+        <v>1959.763123039498</v>
       </c>
       <c r="O5" t="n">
-        <v>2279.135690956216</v>
+        <v>2493.17409378057</v>
       </c>
       <c r="P5" t="n">
-        <v>2389.870016205742</v>
+        <v>2602.201833992999</v>
       </c>
       <c r="Q5" t="n">
-        <v>2635.045976980643</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="R5" t="n">
-        <v>2635.045976980643</v>
+        <v>2635.143761215016</v>
       </c>
       <c r="S5" t="n">
-        <v>2478.830939477471</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.830939477471</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.830939477471</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="V5" t="n">
-        <v>2436.210401386247</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="W5" t="n">
-        <v>2436.210401386247</v>
+        <v>2125.884143115429</v>
       </c>
       <c r="X5" t="n">
-        <v>2062.744643125167</v>
+        <v>1752.418384854349</v>
       </c>
       <c r="Y5" t="n">
-        <v>2062.744643125167</v>
+        <v>1362.279052878537</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>966.1226039662187</v>
+        <v>966.4318812120983</v>
       </c>
       <c r="C6" t="n">
-        <v>791.6695746850917</v>
+        <v>791.9788519309714</v>
       </c>
       <c r="D6" t="n">
-        <v>642.7351650238404</v>
+        <v>643.0444422697201</v>
       </c>
       <c r="E6" t="n">
-        <v>483.4977100183849</v>
+        <v>483.8069872642646</v>
       </c>
       <c r="F6" t="n">
-        <v>336.9631520452699</v>
+        <v>337.2724292911496</v>
       </c>
       <c r="G6" t="n">
-        <v>199.5217544044918</v>
+        <v>199.824552964034</v>
       </c>
       <c r="H6" t="n">
-        <v>98.60577654929637</v>
+        <v>98.84600463815764</v>
       </c>
       <c r="I6" t="n">
-        <v>52.70091953961286</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J6" t="n">
-        <v>52.70091953961286</v>
+        <v>170.7774263352076</v>
       </c>
       <c r="K6" t="n">
-        <v>120.3087392029699</v>
+        <v>237.3598989302709</v>
       </c>
       <c r="L6" t="n">
-        <v>624.6702790690885</v>
+        <v>740.3427331273811</v>
       </c>
       <c r="M6" t="n">
-        <v>1265.215628536193</v>
+        <v>1379.279198108098</v>
       </c>
       <c r="N6" t="n">
-        <v>1917.389507838902</v>
+        <v>1958.575638897798</v>
       </c>
       <c r="O6" t="n">
-        <v>2466.825516591625</v>
+        <v>2506.500878103472</v>
       </c>
       <c r="P6" t="n">
-        <v>2575.515144118924</v>
+        <v>2613.977979877467</v>
       </c>
       <c r="Q6" t="n">
-        <v>2635.045976980643</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="R6" t="n">
-        <v>2613.934077382829</v>
+        <v>2614.390233267651</v>
       </c>
       <c r="S6" t="n">
-        <v>2464.467288245464</v>
+        <v>2464.803105373095</v>
       </c>
       <c r="T6" t="n">
-        <v>2267.477992405552</v>
+        <v>2267.787695880796</v>
       </c>
       <c r="U6" t="n">
-        <v>2039.339204916718</v>
+        <v>2039.648482162597</v>
       </c>
       <c r="V6" t="n">
-        <v>1804.187096684975</v>
+        <v>1804.496373930855</v>
       </c>
       <c r="W6" t="n">
-        <v>1549.949739956773</v>
+        <v>1550.259017202653</v>
       </c>
       <c r="X6" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.40751699712</v>
       </c>
       <c r="Y6" t="n">
-        <v>1134.337940986287</v>
+        <v>1134.647218232166</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>349.3418250248841</v>
+        <v>853.4448232605514</v>
       </c>
       <c r="C7" t="n">
-        <v>349.3418250248841</v>
+        <v>684.5086403326445</v>
       </c>
       <c r="D7" t="n">
-        <v>349.3418250248841</v>
+        <v>534.3920009203088</v>
       </c>
       <c r="E7" t="n">
-        <v>349.3418250248841</v>
+        <v>386.4789073379156</v>
       </c>
       <c r="F7" t="n">
-        <v>349.3418250248841</v>
+        <v>239.5889598400053</v>
       </c>
       <c r="G7" t="n">
-        <v>349.3418250248841</v>
+        <v>70.97668332239647</v>
       </c>
       <c r="H7" t="n">
-        <v>195.0871819246492</v>
+        <v>70.97668332239647</v>
       </c>
       <c r="I7" t="n">
-        <v>70.57550729897548</v>
+        <v>70.97668332239647</v>
       </c>
       <c r="J7" t="n">
-        <v>52.70091953961286</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="K7" t="n">
-        <v>153.7488491352227</v>
+        <v>153.1475318919731</v>
       </c>
       <c r="L7" t="n">
-        <v>338.581844036041</v>
+        <v>337.1890785482319</v>
       </c>
       <c r="M7" t="n">
-        <v>543.851444755279</v>
+        <v>541.6242080628142</v>
       </c>
       <c r="N7" t="n">
-        <v>749.6748095913833</v>
+        <v>746.6329435543747</v>
       </c>
       <c r="O7" t="n">
-        <v>923.7697049799822</v>
+        <v>919.9753968917072</v>
       </c>
       <c r="P7" t="n">
-        <v>1049.217281578598</v>
+        <v>1044.779129327083</v>
       </c>
       <c r="Q7" t="n">
-        <v>1052.635600998958</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="R7" t="n">
-        <v>1052.635600998958</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="S7" t="n">
-        <v>845.195316251363</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="T7" t="n">
-        <v>619.566119563728</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="U7" t="n">
-        <v>619.566119563728</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="V7" t="n">
-        <v>619.566119563728</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="W7" t="n">
-        <v>619.566119563728</v>
+        <v>853.4448232605514</v>
       </c>
       <c r="X7" t="n">
-        <v>570.1344041684142</v>
+        <v>853.4448232605514</v>
       </c>
       <c r="Y7" t="n">
-        <v>349.3418250248841</v>
+        <v>853.4448232605514</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1742.732454855028</v>
+        <v>1943.06884058015</v>
       </c>
       <c r="C8" t="n">
-        <v>1568.561897731297</v>
+        <v>1943.06884058015</v>
       </c>
       <c r="D8" t="n">
-        <v>1568.561897731297</v>
+        <v>1584.803141973399</v>
       </c>
       <c r="E8" t="n">
-        <v>1182.773645133052</v>
+        <v>1199.014889375155</v>
       </c>
       <c r="F8" t="n">
-        <v>771.7877403434449</v>
+        <v>788.0289845855473</v>
       </c>
       <c r="G8" t="n">
-        <v>356.1432212230152</v>
+        <v>370.9412028219747</v>
       </c>
       <c r="H8" t="n">
-        <v>52.70091953961286</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="I8" t="n">
-        <v>52.70091953961286</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J8" t="n">
-        <v>193.9926295475604</v>
+        <v>241.3579866082206</v>
       </c>
       <c r="K8" t="n">
-        <v>456.4907949980429</v>
+        <v>644.825099628266</v>
       </c>
       <c r="L8" t="n">
-        <v>819.0447427728841</v>
+        <v>1033.218542125548</v>
       </c>
       <c r="M8" t="n">
-        <v>1254.125303783476</v>
+        <v>1219.917954950956</v>
       </c>
       <c r="N8" t="n">
-        <v>1700.859731512776</v>
+        <v>1414.252167842938</v>
       </c>
       <c r="O8" t="n">
-        <v>2109.363122473163</v>
+        <v>1961.413372610015</v>
       </c>
       <c r="P8" t="n">
-        <v>2423.510314738926</v>
+        <v>2390.72841894931</v>
       </c>
       <c r="Q8" t="n">
-        <v>2611.24902655301</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="R8" t="n">
-        <v>2635.045976980643</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="S8" t="n">
-        <v>2635.045976980643</v>
+        <v>2479.689342221039</v>
       </c>
       <c r="T8" t="n">
-        <v>2426.563997468712</v>
+        <v>2479.689342221039</v>
       </c>
       <c r="U8" t="n">
-        <v>2426.563997468712</v>
+        <v>2479.689342221039</v>
       </c>
       <c r="V8" t="n">
-        <v>2095.501110125142</v>
+        <v>2295.837495850264</v>
       </c>
       <c r="W8" t="n">
-        <v>1742.732454855028</v>
+        <v>1943.06884058015</v>
       </c>
       <c r="X8" t="n">
-        <v>1742.732454855028</v>
+        <v>1943.06884058015</v>
       </c>
       <c r="Y8" t="n">
-        <v>1742.732454855028</v>
+        <v>1943.06884058015</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3052542689253</v>
+        <v>966.1397720210899</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8522249877983</v>
+        <v>791.6867427399629</v>
       </c>
       <c r="D9" t="n">
-        <v>607.917815326547</v>
+        <v>642.7523330787117</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6803603210915</v>
+        <v>483.5148780732562</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1458023479764</v>
+        <v>336.9803201001412</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4766182997064</v>
+        <v>199.5389224593631</v>
       </c>
       <c r="H9" t="n">
-        <v>72.01859803531258</v>
+        <v>98.62294460416773</v>
       </c>
       <c r="I9" t="n">
-        <v>52.70091953961286</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J9" t="n">
-        <v>118.0354471182385</v>
+        <v>171.3773394513799</v>
       </c>
       <c r="K9" t="n">
-        <v>524.4621829452858</v>
+        <v>500.8057437571898</v>
       </c>
       <c r="L9" t="n">
-        <v>826.0237461476429</v>
+        <v>638.0353417728837</v>
       </c>
       <c r="M9" t="n">
-        <v>1197.288734837033</v>
+        <v>817.5326781274886</v>
       </c>
       <c r="N9" t="n">
-        <v>1849.462614139742</v>
+        <v>1469.919012109231</v>
       </c>
       <c r="O9" t="n">
-        <v>2189.047972268171</v>
+        <v>2019.355020861954</v>
       </c>
       <c r="P9" t="n">
-        <v>2442.262094296974</v>
+        <v>2404.349688975046</v>
       </c>
       <c r="Q9" t="n">
-        <v>2561.609832686965</v>
+        <v>2635.063145035514</v>
       </c>
       <c r="R9" t="n">
-        <v>2561.609832686965</v>
+        <v>2613.9512454377</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.486572340265</v>
+        <v>2464.484456300335</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.609839182435</v>
+        <v>2267.495160460423</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.521855219424</v>
+        <v>2039.356372971589</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.369746987682</v>
+        <v>1804.204264739846</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.13239025948</v>
+        <v>1549.966908011645</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.280890053947</v>
+        <v>1342.115407806112</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.520591288993</v>
+        <v>1134.355109041158</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>920.098122939886</v>
+        <v>650.2117250800591</v>
       </c>
       <c r="C10" t="n">
-        <v>751.1619400119791</v>
+        <v>481.2755421521522</v>
       </c>
       <c r="D10" t="n">
-        <v>601.0453005996434</v>
+        <v>331.1589027398164</v>
       </c>
       <c r="E10" t="n">
-        <v>453.1322070172503</v>
+        <v>183.2458091574233</v>
       </c>
       <c r="F10" t="n">
-        <v>306.2422595193399</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="G10" t="n">
-        <v>306.2422595193399</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="H10" t="n">
-        <v>157.7435726103709</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="I10" t="n">
-        <v>52.70091953961286</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J10" t="n">
-        <v>80.04222654763832</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="K10" t="n">
-        <v>254.8092295930466</v>
+        <v>153.766017190094</v>
       </c>
       <c r="L10" t="n">
-        <v>533.9772579209389</v>
+        <v>338.5990120909124</v>
       </c>
       <c r="M10" t="n">
-        <v>838.7099246413408</v>
+        <v>543.8686128101504</v>
       </c>
       <c r="N10" t="n">
-        <v>1141.631346079985</v>
+        <v>749.6919776462546</v>
       </c>
       <c r="O10" t="n">
-        <v>1405.412012516899</v>
+        <v>923.7868730348534</v>
       </c>
       <c r="P10" t="n">
-        <v>1607.601259943067</v>
+        <v>1049.234449633469</v>
       </c>
       <c r="Q10" t="n">
-        <v>1664.151534413982</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="R10" t="n">
-        <v>1562.782938493304</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="S10" t="n">
-        <v>1562.782938493304</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="T10" t="n">
-        <v>1562.782938493304</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="U10" t="n">
-        <v>1273.666074685654</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="V10" t="n">
-        <v>1018.981586479767</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="W10" t="n">
-        <v>1018.981586479767</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="X10" t="n">
-        <v>1018.981586479767</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="Y10" t="n">
-        <v>1018.981586479767</v>
+        <v>831.8601899102988</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1689.318139675982</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1320.35562273557</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1320.35562273557</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>934.5673701373257</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>523.5814653477182</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520489</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>3009.337405520489</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3009.337405520489</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>2839.523069976995</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>2466.057311715915</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2075.917979740103</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>590.8070661251691</v>
+        <v>1018.438627038652</v>
       </c>
       <c r="C13" t="n">
-        <v>590.8070661251691</v>
+        <v>849.5024441107454</v>
       </c>
       <c r="D13" t="n">
-        <v>590.8070661251691</v>
+        <v>699.3858046984096</v>
       </c>
       <c r="E13" t="n">
-        <v>590.8070661251691</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621296</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251691</v>
+        <v>1648.869221910439</v>
       </c>
       <c r="X13" t="n">
-        <v>590.8070661251691</v>
+        <v>1420.879671012422</v>
       </c>
       <c r="Y13" t="n">
-        <v>590.8070661251691</v>
+        <v>1200.087091868892</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1956.823354598783</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1587.860837658372</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1229.595139051621</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>843.806886453377</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>432.8209816637695</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>385.4219345088998</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>96.42588814559404</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>86.75626160883021</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>345.3879756212509</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>783.7483898162991</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1364.475007962556</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2042.314702134468</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2735.736359596497</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3377.179506367234</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>3890.135390965413</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4227.171151129995</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4337.81308044151</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4246.63032237128</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4044.323222162533</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>3790.859827513482</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3459.796940169911</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3107.028284899797</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>2733.562526638717</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2343.423194662905</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5593518405773</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>767.1063225594503</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>618.171912898199</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9344578927435</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3998999196284</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>176.4854506960517</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>90.31657992277388</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>86.75626160883021</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>221.9776917130178</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>410.0656490255181</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>872.2395844263779</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M15" t="n">
-        <v>1430.931635875236</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
-        <v>1430.931635875236</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1946.514152970481</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2340.981511253771</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2554.753297325112</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
-        <v>2554.753297325112</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>2433.648905323042</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.8142831472</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.775952791076</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.623844559334</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.386487831132</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.534987625599</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.774688860645</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>371.1806157135738</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C16" t="n">
-        <v>202.2444327856669</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D16" t="n">
-        <v>202.2444327856669</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E16" t="n">
-        <v>202.2444327856669</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>202.2444327856669</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>202.2444327856669</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>172.7705671954764</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>86.75626160883021</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>157.9423653405852</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>404.7598379924308</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>776.1276613080912</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1178.07208447793</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1575.893784076602</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>1927.330217449423</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2204.52411649093</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2313.003723946579</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2240.085613714056</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2054.954717251774</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1834.795219309104</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1545.712868828209</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1291.028380622322</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1001.611210585361</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>773.6216596873437</v>
+        <v>1089.459942472577</v>
       </c>
       <c r="Y16" t="n">
-        <v>552.8290805438136</v>
+        <v>868.6673633290469</v>
       </c>
     </row>
     <row r="17">
@@ -5509,49 +5509,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>783.5579673960132</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>614.6217844681063</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>464.5051450557705</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2428.829167345075</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2245.974332999979</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2026.37286802292</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1737.297641367118</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="V19" t="n">
-        <v>1482.613153161231</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W19" t="n">
-        <v>1193.19598312427</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>965.2064322262529</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>965.2064322262529</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
         <v>1948.813509611463</v>
@@ -5746,10 +5746,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5761,10 +5761,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,31 +5773,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>454.6048385560546</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>949.9304447718133</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.701365648819</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.711814750802</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="23">
@@ -5986,16 +5986,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6126,19 +6126,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>148.6919058973624</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924458</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718571</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1613.786198681611</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,25 +6460,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2389.334518447046</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>2884.660124662805</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>3482.038612289356</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>3482.038612289356</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
         <v>484.8112968429803</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>444.7013164925216</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>296.7882229101285</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>149.8982754122182</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.2946447138411</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>916.2946447138411</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
         <v>484.8112968429803</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>916.2946447138411</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7359,22 +7359,22 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>1433.701365648819</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
         <v>1280.315625093766</v>
@@ -7402,19 +7402,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7435,28 +7435,28 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7478,37 +7478,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>923.4916164683283</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>754.5554335404214</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>604.4387941280856</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>604.4387941280856</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X43" t="n">
-        <v>1144.284195611858</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y43" t="n">
-        <v>923.4916164683283</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>923.4916164683283</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>923.4916164683283</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1144.284195611858</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>923.4916164683283</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -7981,19 +7981,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>265.2965862711234</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.81599650215651</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.233205181928369</v>
+        <v>6.839178026546833</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,13 +8069,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>230.7984289569025</v>
+        <v>459.9808678792267</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>45.42368237240552</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8230,13 +8230,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>142.0501052952627</v>
+        <v>368.9308216532274</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>458.0981188384287</v>
+        <v>386.1526929377702</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>37.16554713105194</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>251.5805925818474</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>218.7927243836427</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,19 +8543,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>259.2666325054711</v>
+        <v>458.3127195243206</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>279.0960005917105</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>18.9569194509247</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>-2.676124373617107e-14</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23314,13 +23314,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>181.1247765293544</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>79.42624789262527</v>
       </c>
       <c r="F13" t="n">
-        <v>33.50229141006257</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>363.1665282658583</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.6534357177052</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>112.2651575671788</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>105.058398071027</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23898,13 +23898,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>48.422669637288</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>40.30478226780019</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>191.2691783702298</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>70.88187642683997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>111.1976478713722</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>0.9259388694759139</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>114.1584408891656</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>13.30196929556061</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25599,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>66.73277020259238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>26.98982571067685</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>6.176967258618276</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>997628.420368045</v>
+        <v>997991.8175322866</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>997628.420368045</v>
+        <v>997991.8175322866</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>954525.6659331186</v>
+        <v>997643.6390683223</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>789782.8233182287</v>
+        <v>933708.0853286183</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>896615.7285071368</v>
+        <v>933708.0853286182</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>933708.0853286181</v>
+        <v>933708.0853286183</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>933708.0853286183</v>
+        <v>933708.0853286182</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>933708.0853286183</v>
+        <v>933708.0853286182</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>933708.0853286182</v>
+        <v>933708.0853286183</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>933708.0853286182</v>
+        <v>933708.0853286181</v>
       </c>
     </row>
   </sheetData>
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185703</v>
+        <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185703</v>
+        <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
         <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>409196.5187651049</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="F2" t="n">
-        <v>464935.4258201873</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="G2" t="n">
         <v>484287.9598140037</v>
       </c>
       <c r="H2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="I2" t="n">
         <v>484287.9598140036</v>
-      </c>
-      <c r="I2" t="n">
-        <v>484287.9598140035</v>
       </c>
       <c r="J2" t="n">
         <v>484287.9598140035</v>
       </c>
       <c r="K2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="L2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="M2" t="n">
         <v>484287.9598140037</v>
-      </c>
-      <c r="L2" t="n">
-        <v>484287.9598140036</v>
-      </c>
-      <c r="M2" t="n">
-        <v>484287.9598140035</v>
       </c>
       <c r="N2" t="n">
         <v>484287.9598140036</v>
@@ -26355,7 +26355,7 @@
         <v>484287.9598140036</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>792647.413710985</v>
+        <v>789845.9331222398</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>304387.9199455889</v>
+        <v>2553.74144847562</v>
       </c>
       <c r="E3" t="n">
-        <v>164729.2128925947</v>
+        <v>775624.2722329925</v>
       </c>
       <c r="F3" t="n">
-        <v>235730.8407973092</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>79936.20489673261</v>
+        <v>3.535601535986644e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172360.9924002808</v>
+        <v>172417.1413821404</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>43022.56888020196</v>
+        <v>128024.1174663868</v>
       </c>
       <c r="N3" t="n">
-        <v>61979.22182100704</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>21238.65833413591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183955.1029744945</v>
+        <v>184436.3405408961</v>
       </c>
       <c r="C4" t="n">
-        <v>183955.1029744945</v>
+        <v>184436.3405408961</v>
       </c>
       <c r="D4" t="n">
-        <v>126396.7504709558</v>
+        <v>183932.5854660025</v>
       </c>
       <c r="E4" t="n">
-        <v>6110.739312017629</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="F4" t="n">
-        <v>6241.703467216159</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="H4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
         <v>6287.480531695052</v>
@@ -26453,13 +26453,13 @@
         <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695026</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86618.07783747559</v>
+        <v>86566.12012538439</v>
       </c>
       <c r="C5" t="n">
-        <v>86618.07783747559</v>
+        <v>86566.12012538439</v>
       </c>
       <c r="D5" t="n">
-        <v>94366.26581059821</v>
+        <v>86631.12555917782</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>94193.53639974758</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-570595.5326043848</v>
+        <v>-568223.3318699503</v>
       </c>
       <c r="C6" t="n">
-        <v>222051.8811066002</v>
+        <v>221622.6012522895</v>
       </c>
       <c r="D6" t="n">
-        <v>-32525.87430857283</v>
+        <v>219507.609444914</v>
       </c>
       <c r="E6" t="n">
-        <v>164050.2259990992</v>
+        <v>-399093.7020289481</v>
       </c>
       <c r="F6" t="n">
-        <v>128769.3451559143</v>
+        <v>376530.5702040446</v>
       </c>
       <c r="G6" t="n">
-        <v>296941.7445616689</v>
+        <v>376530.5702040442</v>
       </c>
       <c r="H6" t="n">
-        <v>376877.9494584015</v>
+        <v>376530.5702040449</v>
       </c>
       <c r="I6" t="n">
-        <v>376877.9494584013</v>
+        <v>376530.5702040444</v>
       </c>
       <c r="J6" t="n">
-        <v>204516.9570581205</v>
+        <v>204113.428821904</v>
       </c>
       <c r="K6" t="n">
-        <v>376877.9494584015</v>
+        <v>376530.5702040445</v>
       </c>
       <c r="L6" t="n">
-        <v>376877.9494584014</v>
+        <v>376530.5702040443</v>
       </c>
       <c r="M6" t="n">
-        <v>333855.3805781993</v>
+        <v>248506.4527376578</v>
       </c>
       <c r="N6" t="n">
-        <v>314898.7276373943</v>
+        <v>376530.5702040445</v>
       </c>
       <c r="O6" t="n">
-        <v>355639.2911242656</v>
+        <v>376530.5702040445</v>
       </c>
       <c r="P6" t="n">
-        <v>376877.9494584014</v>
+        <v>376530.5702040445</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>590.4941997053388</v>
+      </c>
+      <c r="C3" t="n">
+        <v>590.4941997053388</v>
+      </c>
+      <c r="D3" t="n">
         <v>593.4761003380651</v>
       </c>
-      <c r="C3" t="n">
-        <v>593.4761003380651</v>
-      </c>
-      <c r="D3" t="n">
-        <v>948.8975669950661</v>
-      </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1296.274200781497</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.9760949310527</v>
       </c>
       <c r="C4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.9760949310527</v>
       </c>
       <c r="D4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.9760949310527</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1084.453270110378</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380651</v>
+        <v>590.4941997053388</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>355.421466657001</v>
+        <v>2.981900632726251</v>
       </c>
       <c r="E3" t="n">
-        <v>140.8791335982322</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
-        <v>206.4975001881985</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>71.70129956017695</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.9760949310527</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>172.6399611571321</v>
+        <v>513.732193168596</v>
       </c>
       <c r="F4" t="n">
-        <v>253.0518147080846</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>88.25501798927087</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.9760949310528</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>172.6399611571321</v>
+        <v>513.732193168596</v>
       </c>
       <c r="N4" t="n">
-        <v>253.0518147080846</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>88.25501798927041</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.9760949310527</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>172.6399611571321</v>
+        <v>513.732193168596</v>
       </c>
       <c r="N4" t="n">
-        <v>253.0518147080846</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>88.25501798927087</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>315.1636514716172</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.958190538687</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>6.886651272245103</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>281.3593199551393</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27542,25 +27542,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>158.534323411079</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.75990484659</v>
       </c>
       <c r="I4" t="n">
-        <v>123.266557879417</v>
+        <v>123.4282648842212</v>
       </c>
       <c r="J4" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.1731816677913</v>
+        <v>129.4149600371268</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001186</v>
+        <v>205.4595917937733</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3729047207587</v>
+        <v>223.3958800207158</v>
       </c>
       <c r="U4" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>155.9994967174872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>326.9179172627877</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.1636514716172</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>212.7043385723319</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>251.1557452255192</v>
       </c>
       <c r="V5" t="n">
-        <v>285.5579257598233</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,25 +27776,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.75990484659</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>123.4282648842212</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>129.4149600371268</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.4595917937733</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3958800207158</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>286.2609479597986</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>94.15920578689833</v>
       </c>
       <c r="X7" t="n">
-        <v>176.7722571476766</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,10 +27855,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>192.8440402185141</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>63.4110716746178</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.0934231223254</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0404798209637</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>145.7389305630676</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>81.93735127745505</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,19 +28022,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>16.19860367562154</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2798525983037</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>194.1963253168159</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>220.6344114530736</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.38583356919825</v>
+        <v>2.373846028966184</v>
       </c>
       <c r="H2" t="n">
-        <v>24.43391804055158</v>
+        <v>24.31115064414994</v>
       </c>
       <c r="I2" t="n">
-        <v>91.97984867651562</v>
+        <v>91.51769903171892</v>
       </c>
       <c r="J2" t="n">
-        <v>202.4946418937401</v>
+        <v>201.4772144009689</v>
       </c>
       <c r="K2" t="n">
-        <v>303.4869768779021</v>
+        <v>301.9621168071075</v>
       </c>
       <c r="L2" t="n">
-        <v>376.5024309712531</v>
+        <v>374.6107072160814</v>
       </c>
       <c r="M2" t="n">
-        <v>418.9314987074825</v>
+        <v>416.8265915337088</v>
       </c>
       <c r="N2" t="n">
-        <v>425.710248335967</v>
+        <v>423.571281563509</v>
       </c>
       <c r="O2" t="n">
-        <v>401.9861157822519</v>
+        <v>399.9663501129765</v>
       </c>
       <c r="P2" t="n">
-        <v>343.0858495426701</v>
+        <v>341.3620262728738</v>
       </c>
       <c r="Q2" t="n">
-        <v>257.6431848457577</v>
+        <v>256.3486653605222</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>149.1161056170472</v>
       </c>
       <c r="S2" t="n">
-        <v>54.36718245810517</v>
+        <v>54.09401638506698</v>
       </c>
       <c r="T2" t="n">
-        <v>10.44398644916534</v>
+        <v>10.39151099179948</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.1899076823172947</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.276533498840366</v>
+        <v>1.2701195993662</v>
       </c>
       <c r="H3" t="n">
-        <v>12.32862615985301</v>
+        <v>12.26668139387883</v>
       </c>
       <c r="I3" t="n">
-        <v>43.95082441182841</v>
+        <v>43.7299949781784</v>
       </c>
       <c r="J3" t="n">
-        <v>120.6044214847383</v>
+        <v>119.9984486401199</v>
       </c>
       <c r="K3" t="n">
-        <v>206.1321659070429</v>
+        <v>205.0964617976553</v>
       </c>
       <c r="L3" t="n">
-        <v>277.1701353512822</v>
+        <v>275.7775033623849</v>
       </c>
       <c r="M3" t="n">
-        <v>323.4444746842454</v>
+        <v>321.8193388394096</v>
       </c>
       <c r="N3" t="n">
-        <v>332.0050874900653</v>
+        <v>330.3369391351593</v>
       </c>
       <c r="O3" t="n">
-        <v>303.7197925947077</v>
+        <v>302.193762749203</v>
       </c>
       <c r="P3" t="n">
-        <v>243.7619099671574</v>
+        <v>242.5371364789721</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.9483813607457</v>
+        <v>162.1296527190961</v>
       </c>
       <c r="R3" t="n">
-        <v>79.25705355080804</v>
+        <v>78.85882916064887</v>
       </c>
       <c r="S3" t="n">
-        <v>23.71104985784626</v>
+        <v>23.59191448822744</v>
       </c>
       <c r="T3" t="n">
-        <v>5.145325813308316</v>
+        <v>5.119473297445341</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.0835604999583027</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.070202803888314</v>
+        <v>1.064825606026021</v>
       </c>
       <c r="H4" t="n">
-        <v>9.515075838207016</v>
+        <v>9.467267660849537</v>
       </c>
       <c r="I4" t="n">
-        <v>32.18391704784131</v>
+        <v>32.02221004303707</v>
       </c>
       <c r="J4" t="n">
-        <v>75.66333823490379</v>
+        <v>75.28317034603965</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3381075790241</v>
+        <v>123.7133749546595</v>
       </c>
       <c r="L4" t="n">
-        <v>159.1099695889954</v>
+        <v>158.3105269177231</v>
       </c>
       <c r="M4" t="n">
-        <v>167.7591540676927</v>
+        <v>166.9162538609698</v>
       </c>
       <c r="N4" t="n">
-        <v>163.7702163441091</v>
+        <v>162.9473584203274</v>
       </c>
       <c r="O4" t="n">
-        <v>151.2683017714137</v>
+        <v>150.5082592953871</v>
       </c>
       <c r="P4" t="n">
-        <v>129.436164572092</v>
+        <v>128.7858169324561</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.61489115104783</v>
+        <v>89.16462415550616</v>
       </c>
       <c r="R4" t="n">
-        <v>48.12020970937817</v>
+        <v>47.8784313400427</v>
       </c>
       <c r="S4" t="n">
-        <v>18.65071613685361</v>
+        <v>18.55700624319892</v>
       </c>
       <c r="T4" t="n">
-        <v>4.572684707522795</v>
+        <v>4.549709407565723</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.05808139669232847</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.38583356919825</v>
+        <v>2.373846028966184</v>
       </c>
       <c r="H5" t="n">
-        <v>24.43391804055158</v>
+        <v>24.31115064414994</v>
       </c>
       <c r="I5" t="n">
-        <v>91.97984867651562</v>
+        <v>91.51769903171892</v>
       </c>
       <c r="J5" t="n">
-        <v>202.4946418937401</v>
+        <v>201.4772144009689</v>
       </c>
       <c r="K5" t="n">
-        <v>303.4869768779021</v>
+        <v>301.9621168071075</v>
       </c>
       <c r="L5" t="n">
-        <v>376.5024309712531</v>
+        <v>374.6107072160814</v>
       </c>
       <c r="M5" t="n">
-        <v>418.9314987074825</v>
+        <v>416.8265915337088</v>
       </c>
       <c r="N5" t="n">
-        <v>425.710248335967</v>
+        <v>423.571281563509</v>
       </c>
       <c r="O5" t="n">
-        <v>401.9861157822519</v>
+        <v>399.9663501129765</v>
       </c>
       <c r="P5" t="n">
-        <v>343.0858495426701</v>
+        <v>341.3620262728738</v>
       </c>
       <c r="Q5" t="n">
-        <v>257.6431848457577</v>
+        <v>256.3486653605222</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>149.1161056170472</v>
       </c>
       <c r="S5" t="n">
-        <v>54.36718245810517</v>
+        <v>54.09401638506698</v>
       </c>
       <c r="T5" t="n">
-        <v>10.44398644916534</v>
+        <v>10.39151099179948</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.1899076823172947</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.276533498840366</v>
+        <v>1.2701195993662</v>
       </c>
       <c r="H6" t="n">
-        <v>12.32862615985301</v>
+        <v>12.26668139387883</v>
       </c>
       <c r="I6" t="n">
-        <v>43.95082441182841</v>
+        <v>43.7299949781784</v>
       </c>
       <c r="J6" t="n">
-        <v>120.6044214847383</v>
+        <v>119.9984486401199</v>
       </c>
       <c r="K6" t="n">
-        <v>206.1321659070429</v>
+        <v>205.0964617976553</v>
       </c>
       <c r="L6" t="n">
-        <v>277.1701353512822</v>
+        <v>275.7775033623849</v>
       </c>
       <c r="M6" t="n">
-        <v>323.4444746842454</v>
+        <v>321.8193388394096</v>
       </c>
       <c r="N6" t="n">
-        <v>332.0050874900653</v>
+        <v>330.3369391351593</v>
       </c>
       <c r="O6" t="n">
-        <v>303.7197925947077</v>
+        <v>302.193762749203</v>
       </c>
       <c r="P6" t="n">
-        <v>243.7619099671574</v>
+        <v>242.5371364789721</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.9483813607457</v>
+        <v>162.1296527190961</v>
       </c>
       <c r="R6" t="n">
-        <v>79.25705355080804</v>
+        <v>78.85882916064887</v>
       </c>
       <c r="S6" t="n">
-        <v>23.71104985784626</v>
+        <v>23.59191448822744</v>
       </c>
       <c r="T6" t="n">
-        <v>5.145325813308317</v>
+        <v>5.119473297445341</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.0835604999583027</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.070202803888314</v>
+        <v>1.064825606026021</v>
       </c>
       <c r="H7" t="n">
-        <v>9.515075838207016</v>
+        <v>9.467267660849537</v>
       </c>
       <c r="I7" t="n">
-        <v>32.18391704784131</v>
+        <v>32.02221004303707</v>
       </c>
       <c r="J7" t="n">
-        <v>75.66333823490379</v>
+        <v>75.28317034603965</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3381075790241</v>
+        <v>123.7133749546595</v>
       </c>
       <c r="L7" t="n">
-        <v>159.1099695889954</v>
+        <v>158.3105269177231</v>
       </c>
       <c r="M7" t="n">
-        <v>167.7591540676927</v>
+        <v>166.9162538609698</v>
       </c>
       <c r="N7" t="n">
-        <v>163.7702163441091</v>
+        <v>162.9473584203274</v>
       </c>
       <c r="O7" t="n">
-        <v>151.2683017714137</v>
+        <v>150.5082592953871</v>
       </c>
       <c r="P7" t="n">
-        <v>129.436164572092</v>
+        <v>128.7858169324561</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.61489115104783</v>
+        <v>89.16462415550616</v>
       </c>
       <c r="R7" t="n">
-        <v>48.12020970937817</v>
+        <v>47.8784313400427</v>
       </c>
       <c r="S7" t="n">
-        <v>18.65071613685361</v>
+        <v>18.55700624319892</v>
       </c>
       <c r="T7" t="n">
-        <v>4.572684707522795</v>
+        <v>4.549709407565723</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.05808139669232847</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.81466358590981</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H8" t="n">
-        <v>39.06692344919886</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I8" t="n">
-        <v>147.0648178957881</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J8" t="n">
-        <v>323.7648035246131</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K8" t="n">
-        <v>485.2395131161754</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L8" t="n">
-        <v>601.9825238334629</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M8" t="n">
-        <v>669.8215473793865</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N8" t="n">
-        <v>680.6599602928528</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O8" t="n">
-        <v>642.7278992604621</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P8" t="n">
-        <v>548.5533919833135</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q8" t="n">
-        <v>411.9407523129183</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R8" t="n">
-        <v>239.6228614784073</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>86.92664646391989</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T8" t="n">
-        <v>16.6986898473202</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3051730868727848</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.04102495542335</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H9" t="n">
-        <v>19.71200417474656</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I9" t="n">
-        <v>70.27213114067236</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J9" t="n">
-        <v>192.8320989683087</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K9" t="n">
-        <v>329.5807709816731</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L9" t="n">
-        <v>443.1620193782147</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M9" t="n">
-        <v>517.1491740123109</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N9" t="n">
-        <v>530.8365738230229</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O9" t="n">
-        <v>485.6117577054844</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P9" t="n">
-        <v>389.7462478474641</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q9" t="n">
-        <v>260.5350451870227</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R9" t="n">
-        <v>126.7225845130393</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S9" t="n">
-        <v>37.91114336060474</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T9" t="n">
-        <v>8.226762868570429</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1342779575936415</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.711126760155037</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H10" t="n">
-        <v>15.21347246756025</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I10" t="n">
-        <v>51.45824838720786</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J10" t="n">
-        <v>120.9766619429611</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K10" t="n">
-        <v>198.8018181343761</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L10" t="n">
-        <v>254.3978821415953</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M10" t="n">
-        <v>268.2268975032118</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N10" t="n">
-        <v>261.8490613971796</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O10" t="n">
-        <v>241.8599896990048</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P10" t="n">
-        <v>206.9530037918418</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q10" t="n">
-        <v>143.283532616255</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R10" t="n">
-        <v>76.93848141569828</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S10" t="n">
-        <v>29.82027272015641</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T10" t="n">
-        <v>7.311177975207883</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09333418691754758</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.211152565955762</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>53.36871621609446</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>200.9029592990097</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>442.2900600947883</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>662.8781482116958</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>822.3589585520647</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>915.0327929968804</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>929.8389802249022</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>878.0205818971796</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>749.3702529251466</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>562.7458516568557</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>327.3450623712189</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>118.749139096717</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>22.81182035747136</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4168922052764609</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.788212431869635</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>26.92826217095148</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>95.99766486919577</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>263.4249298022097</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>327.8292746435512</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>605.3967387706416</v>
+        <v>242.2322097768141</v>
       </c>
       <c r="M15" t="n">
-        <v>706.4694394259157</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>663.3866657527723</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>532.4262844681587</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>355.9128711277801</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>51.78982302178901</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.23845274073769</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1834350284124761</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.337543640753518</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>20.78288800597221</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>70.29631239647856</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>165.2643354012737</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>271.5800702620905</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>347.5289881898459</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>366.420590886481</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>357.7079282254909</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>330.4011684221429</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>282.7152781507709</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>195.737404318006</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>105.1044622469718</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>40.73701053931358</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
-        <v>9.987686465037758</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1275023804047375</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>414.6448185524866</v>
       </c>
       <c r="N18" t="n">
-        <v>230.1272937575231</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32554,13 +32554,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>351.1157147121651</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32572,7 +32572,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32800,13 +32800,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,31 +33022,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>639.8517673857162</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>146.0225991093083</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33274,16 +33274,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,13 +33514,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>164.9290651940687</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33745,16 +33745,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>575.5951359912046</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33982,19 +33982,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34222,16 +34222,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>370.9642309107746</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34459,13 +34459,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.5453525391276</v>
+        <v>189.5279250463564</v>
       </c>
       <c r="K2" t="n">
-        <v>83.39712583292157</v>
+        <v>406.0176783332917</v>
       </c>
       <c r="L2" t="n">
-        <v>140.7360160012659</v>
+        <v>404.1408785172176</v>
       </c>
       <c r="M2" t="n">
-        <v>638.0987989730422</v>
+        <v>186.4803583064361</v>
       </c>
       <c r="N2" t="n">
-        <v>633.6441091513602</v>
+        <v>194.1582179669181</v>
       </c>
       <c r="O2" t="n">
-        <v>240.7039008627217</v>
+        <v>550.6683199540352</v>
       </c>
       <c r="P2" t="n">
-        <v>433.6515619588832</v>
+        <v>431.9277386890869</v>
       </c>
       <c r="Q2" t="n">
-        <v>247.6524856312129</v>
+        <v>246.3579661459774</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>332.7559639452625</v>
+        <v>67.25502282329629</v>
       </c>
       <c r="L3" t="n">
-        <v>509.4561008748672</v>
+        <v>508.0634688859699</v>
       </c>
       <c r="M3" t="n">
-        <v>647.0155045122269</v>
+        <v>645.3903686673912</v>
       </c>
       <c r="N3" t="n">
-        <v>431.4618043636345</v>
+        <v>658.9760949310527</v>
       </c>
       <c r="O3" t="n">
-        <v>554.9858674269929</v>
+        <v>553.459837581488</v>
       </c>
       <c r="P3" t="n">
-        <v>109.7875025528271</v>
+        <v>153.9864114370474</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.96660727472423</v>
+        <v>22.14787863307455</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>102.0686157531412</v>
+        <v>101.4438831287766</v>
       </c>
       <c r="L4" t="n">
-        <v>186.6999948493115</v>
+        <v>185.9005521780393</v>
       </c>
       <c r="M4" t="n">
-        <v>207.3430310295333</v>
+        <v>206.5001308228103</v>
       </c>
       <c r="N4" t="n">
-        <v>207.9023887233377</v>
+        <v>207.079530799556</v>
       </c>
       <c r="O4" t="n">
-        <v>175.8534296854534</v>
+        <v>175.0933872094267</v>
       </c>
       <c r="P4" t="n">
-        <v>126.7147238369855</v>
+        <v>126.0643761973496</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.452847899353443</v>
+        <v>3.002580903811776</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>21.44873736705384</v>
+        <v>20.43130987428259</v>
       </c>
       <c r="K5" t="n">
-        <v>83.39712583292157</v>
+        <v>81.87226576212697</v>
       </c>
       <c r="L5" t="n">
-        <v>558.3972305517163</v>
+        <v>556.5055067965446</v>
       </c>
       <c r="M5" t="n">
-        <v>638.0987989730422</v>
+        <v>635.9938917992686</v>
       </c>
       <c r="N5" t="n">
-        <v>633.6441091513602</v>
+        <v>631.5051423789023</v>
       </c>
       <c r="O5" t="n">
-        <v>313.9380096558278</v>
+        <v>538.7989603445172</v>
       </c>
       <c r="P5" t="n">
-        <v>111.8528537874005</v>
+        <v>110.1290305176042</v>
       </c>
       <c r="Q5" t="n">
-        <v>247.6524856312129</v>
+        <v>34.04297548607272</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>119.251857313862</v>
       </c>
       <c r="K6" t="n">
-        <v>68.29072693268387</v>
+        <v>67.25502282329629</v>
       </c>
       <c r="L6" t="n">
-        <v>509.4561008748672</v>
+        <v>508.0634688859699</v>
       </c>
       <c r="M6" t="n">
-        <v>647.0155045122269</v>
+        <v>645.3903686673912</v>
       </c>
       <c r="N6" t="n">
-        <v>658.7614942451607</v>
+        <v>585.1479199895962</v>
       </c>
       <c r="O6" t="n">
-        <v>554.9858674269929</v>
+        <v>553.459837581488</v>
       </c>
       <c r="P6" t="n">
-        <v>109.7875025528271</v>
+        <v>108.5627290646419</v>
       </c>
       <c r="Q6" t="n">
-        <v>60.13215440577617</v>
+        <v>22.14787863307455</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>102.0686157531412</v>
+        <v>101.4438831287766</v>
       </c>
       <c r="L7" t="n">
-        <v>186.6999948493115</v>
+        <v>185.9005521780393</v>
       </c>
       <c r="M7" t="n">
-        <v>207.3430310295333</v>
+        <v>206.5001308228103</v>
       </c>
       <c r="N7" t="n">
-        <v>207.9023887233377</v>
+        <v>207.079530799556</v>
       </c>
       <c r="O7" t="n">
-        <v>175.8534296854534</v>
+        <v>175.0933872094267</v>
       </c>
       <c r="P7" t="n">
-        <v>126.7147238369855</v>
+        <v>126.0643761973496</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.452847899353443</v>
+        <v>3.002580903811776</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>142.7188989979268</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>265.1496620711949</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>366.2161088634757</v>
+        <v>392.3166085831132</v>
       </c>
       <c r="M8" t="n">
-        <v>439.4753141521138</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>451.2468966962619</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>412.6296878387753</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>317.320396228044</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>189.6350624384689</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
-        <v>24.03732366427522</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>65.99447230164202</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>410.5320563909569</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>304.6076395983405</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
-        <v>375.0151400902926</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>658.7614942451607</v>
+        <v>658.9760949310527</v>
       </c>
       <c r="O9" t="n">
-        <v>343.01551326104</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>255.7718404331338</v>
+        <v>388.8835031445377</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.5532711010012</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>27.61748182628834</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>176.5323263084932</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L10" t="n">
-        <v>281.9879074019114</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M10" t="n">
-        <v>307.8107744650524</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N10" t="n">
-        <v>305.9812337764082</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O10" t="n">
-        <v>266.4451176130444</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P10" t="n">
-        <v>204.2315630567353</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.12148936456059</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>261.244155568102</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>442.7882971667153</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>586.5925435820775</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>684.6865597696077</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>700.4259166283114</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>647.9223704754928</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>518.1372571698771</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>340.4401617824062</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>111.7595245570868</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>136.587303135543</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>189.9878356691922</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>466.8423589907674</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="M15" t="n">
-        <v>564.3354055038974</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>520.7904213083278</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>398.4518770538284</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>215.9310970417586</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>71.90515528460097</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>249.3105784362077</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>375.119013450162</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>406.0044678483216</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>401.8401006047195</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>354.9862963361826</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>279.9938374156644</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>109.5753610663116</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>272.5107846304683</v>
       </c>
       <c r="N18" t="n">
-        <v>98.78558167418976</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36126,7 +36126,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36202,13 +36202,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>213.2742757378061</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36220,7 +36220,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36448,13 +36448,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>508.510055302383</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>8.181160134949316</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36922,16 +36922,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,13 +37162,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>22.33282074962425</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37320,7 +37320,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37393,16 +37393,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>433.4611020691863</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37630,19 +37630,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37870,16 +37870,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>228.3679864663302</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38107,13 +38107,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1345845.969871644</v>
+        <v>1347682.024714242</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10955577.07554859</v>
+        <v>10981553.63325424</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>439189.2454881954</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10981788.39749223</v>
+        <v>10970628.38549166</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>12.92889148616887</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>51.5667658876185</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7530123241024569</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.9260532011784</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7043385723319</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1557452255192</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
-        <v>46.39293851499558</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0733975638444</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>99.96876284261762</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I3" t="n">
-        <v>45.66663787323668</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.29900499199427</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S3" t="n">
-        <v>148.0912566156104</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
-        <v>195.0452553973763</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8578215810165</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>129.5484888913672</v>
       </c>
       <c r="G4" t="n">
-        <v>8.391830341353753</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.07600977063312</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2609479597986</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>55.01245280947408</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.92889148616887</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>5.724386358466061</v>
       </c>
       <c r="I5" t="n">
-        <v>118.958190538687</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7530123241024569</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.9260532011784</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0733975638444</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
-        <v>99.96876284261762</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I6" t="n">
-        <v>45.66663787323668</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>21.29900499199427</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S6" t="n">
-        <v>148.0912566156104</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T6" t="n">
-        <v>195.0452553973763</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8578215810165</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9261537524327</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>18.07600977063312</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>192.3637925496927</v>
+        <v>198.5622246230542</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.8640079061473</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>100.8056870549762</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>116.4567663199056</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>153.4475186214369</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>182.0133279070673</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0669836643703</v>
+        <v>136.0386817879867</v>
       </c>
       <c r="H9" t="n">
-        <v>99.90681807664345</v>
+        <v>99.63348153367552</v>
       </c>
       <c r="I9" t="n">
-        <v>45.44580843958667</v>
+        <v>44.47137980094081</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.90078060183509</v>
+        <v>19.14358164531652</v>
       </c>
       <c r="S9" t="n">
-        <v>147.9721212459916</v>
+        <v>147.4464263052699</v>
       </c>
       <c r="T9" t="n">
-        <v>195.0194028815133</v>
+        <v>194.9053264587215</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8555376483943</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>129.2224443473097</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>79.72840432994327</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>314.9813656337158</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1463,10 +1463,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>67.0077147539439</v>
+        <v>15.78698276986304</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>200.6173698503548</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1700,10 +1700,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2.429801689242464</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>120.6512573180102</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>75.96788793061765</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2010,7 +2010,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>245.879692121444</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2253,10 +2253,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>156.8624097380495</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>26.1362719570585</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>1.79977260571614</v>
+        <v>36.43062059490413</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>54.32649042089665</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>147.6895341487364</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>1.799772605716168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>134.5665975534139</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>78.9105100867805</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>87.21471514852939</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3711,22 +3711,22 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>71.60395572454081</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>78.9105100867805</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="45">
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1589.779946879164</v>
+        <v>1636.873616229253</v>
       </c>
       <c r="C2" t="n">
-        <v>1220.817429938752</v>
+        <v>1636.873616229253</v>
       </c>
       <c r="D2" t="n">
-        <v>862.5517313320015</v>
+        <v>1636.873616229253</v>
       </c>
       <c r="E2" t="n">
-        <v>476.7634787337573</v>
+        <v>1251.085363631009</v>
       </c>
       <c r="F2" t="n">
-        <v>65.77757394414974</v>
+        <v>840.0994588414017</v>
       </c>
       <c r="G2" t="n">
-        <v>52.71808759448422</v>
+        <v>423.0116770778291</v>
       </c>
       <c r="H2" t="n">
-        <v>52.71808759448422</v>
+        <v>104.7885618503386</v>
       </c>
       <c r="I2" t="n">
-        <v>52.71808759448422</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J2" t="n">
-        <v>240.350733390377</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K2" t="n">
-        <v>642.3082349403358</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L2" t="n">
-        <v>1042.407704672381</v>
+        <v>709.3115823537878</v>
       </c>
       <c r="M2" t="n">
-        <v>1227.023259395753</v>
+        <v>1341.029393337099</v>
       </c>
       <c r="N2" t="n">
-        <v>1419.239895183002</v>
+        <v>1942.166326942444</v>
       </c>
       <c r="O2" t="n">
-        <v>1964.401531937497</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P2" t="n">
-        <v>2392.009993239693</v>
+        <v>2600.061856959048</v>
       </c>
       <c r="Q2" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R2" t="n">
-        <v>2635.143761215016</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="S2" t="n">
-        <v>2478.652798385543</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T2" t="n">
-        <v>2263.799931140763</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U2" t="n">
-        <v>2010.107259195795</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V2" t="n">
-        <v>1963.245705140243</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="W2" t="n">
-        <v>1963.245705140243</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="X2" t="n">
-        <v>1589.779946879164</v>
+        <v>1636.873616229253</v>
       </c>
       <c r="Y2" t="n">
-        <v>1589.779946879164</v>
+        <v>1636.873616229253</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.4318812120978</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C3" t="n">
-        <v>791.9788519309708</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D3" t="n">
-        <v>643.0444422697196</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E3" t="n">
-        <v>483.8069872642641</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F3" t="n">
-        <v>337.2724292911492</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G3" t="n">
-        <v>199.8245529640338</v>
+        <v>199.5217544044917</v>
       </c>
       <c r="H3" t="n">
-        <v>98.84600463815741</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I3" t="n">
-        <v>52.71808759448422</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J3" t="n">
-        <v>52.71808759448422</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K3" t="n">
-        <v>119.3005601895475</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L3" t="n">
-        <v>622.2833943866577</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M3" t="n">
-        <v>1261.219859367375</v>
+        <v>1094.033005337444</v>
       </c>
       <c r="N3" t="n">
-        <v>1913.606193349117</v>
+        <v>1746.206884640153</v>
       </c>
       <c r="O3" t="n">
-        <v>2461.53143255479</v>
+        <v>2295.642893392876</v>
       </c>
       <c r="P3" t="n">
-        <v>2613.977979877467</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q3" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R3" t="n">
-        <v>2614.390233267651</v>
+        <v>2613.93407738283</v>
       </c>
       <c r="S3" t="n">
-        <v>2464.803105373095</v>
+        <v>2464.467288245464</v>
       </c>
       <c r="T3" t="n">
-        <v>2267.787695880796</v>
+        <v>2267.477992405552</v>
       </c>
       <c r="U3" t="n">
-        <v>2039.648482162597</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V3" t="n">
-        <v>1804.496373930854</v>
+        <v>1804.187096684975</v>
       </c>
       <c r="W3" t="n">
-        <v>1550.259017202653</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.40751699712</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y3" t="n">
-        <v>1134.647218232166</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>248.3894625547011</v>
+        <v>650.1945570251878</v>
       </c>
       <c r="C4" t="n">
-        <v>79.4532796267942</v>
+        <v>650.1945570251878</v>
       </c>
       <c r="D4" t="n">
-        <v>79.4532796267942</v>
+        <v>500.077917612852</v>
       </c>
       <c r="E4" t="n">
-        <v>79.4532796267942</v>
+        <v>352.1648240304589</v>
       </c>
       <c r="F4" t="n">
-        <v>79.4532796267942</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="G4" t="n">
-        <v>70.97668332239647</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H4" t="n">
-        <v>70.97668332239647</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I4" t="n">
-        <v>70.97668332239647</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J4" t="n">
-        <v>52.71808759448422</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K4" t="n">
-        <v>153.1475318919731</v>
+        <v>153.7488491352227</v>
       </c>
       <c r="L4" t="n">
-        <v>337.1890785482319</v>
+        <v>338.581844036041</v>
       </c>
       <c r="M4" t="n">
-        <v>541.6242080628142</v>
+        <v>543.851444755279</v>
       </c>
       <c r="N4" t="n">
-        <v>746.6329435543747</v>
+        <v>749.6748095913833</v>
       </c>
       <c r="O4" t="n">
-        <v>919.9753968917072</v>
+        <v>923.7697049799822</v>
       </c>
       <c r="P4" t="n">
-        <v>1044.779129327083</v>
+        <v>1049.217281578598</v>
       </c>
       <c r="Q4" t="n">
-        <v>1047.751684421857</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="R4" t="n">
-        <v>1047.751684421857</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S4" t="n">
-        <v>1047.751684421857</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T4" t="n">
-        <v>1047.751684421857</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U4" t="n">
-        <v>758.5992117351918</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V4" t="n">
-        <v>758.5992117351918</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="W4" t="n">
-        <v>469.1820416982312</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="X4" t="n">
-        <v>469.1820416982312</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="Y4" t="n">
-        <v>248.3894625547011</v>
+        <v>831.8430218554275</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>975.6792128144155</v>
+        <v>1715.225849240579</v>
       </c>
       <c r="C5" t="n">
-        <v>606.7166958740038</v>
+        <v>1346.263332300168</v>
       </c>
       <c r="D5" t="n">
-        <v>248.4509972672533</v>
+        <v>987.9976336934174</v>
       </c>
       <c r="E5" t="n">
-        <v>192.8828631162694</v>
+        <v>602.2093810951731</v>
       </c>
       <c r="F5" t="n">
-        <v>185.9373623670659</v>
+        <v>595.2638803459696</v>
       </c>
       <c r="G5" t="n">
-        <v>172.8778760174004</v>
+        <v>178.1760985823971</v>
       </c>
       <c r="H5" t="n">
-        <v>172.8778760174004</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I5" t="n">
-        <v>52.71808759448422</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J5" t="n">
-        <v>72.94508437002398</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K5" t="n">
-        <v>153.9986274745297</v>
+        <v>477.4022825530416</v>
       </c>
       <c r="L5" t="n">
-        <v>704.9390792031089</v>
+        <v>1030.215540799241</v>
       </c>
       <c r="M5" t="n">
-        <v>1334.573032084385</v>
+        <v>1661.933351782553</v>
       </c>
       <c r="N5" t="n">
-        <v>1959.763123039498</v>
+        <v>2289.241019842399</v>
       </c>
       <c r="O5" t="n">
-        <v>2493.17409378057</v>
+        <v>2459.410045159359</v>
       </c>
       <c r="P5" t="n">
-        <v>2602.201833992999</v>
+        <v>2600.061856959048</v>
       </c>
       <c r="Q5" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R5" t="n">
-        <v>2635.143761215016</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="S5" t="n">
-        <v>2478.652798385543</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.652798385543</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.652798385543</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="V5" t="n">
-        <v>2478.652798385543</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="W5" t="n">
-        <v>2125.884143115429</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="X5" t="n">
-        <v>1752.418384854349</v>
+        <v>2105.365181216391</v>
       </c>
       <c r="Y5" t="n">
-        <v>1362.279052878537</v>
+        <v>1715.225849240579</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>966.4318812120983</v>
+        <v>966.1226039662187</v>
       </c>
       <c r="C6" t="n">
-        <v>791.9788519309714</v>
+        <v>791.6695746850917</v>
       </c>
       <c r="D6" t="n">
-        <v>643.0444422697201</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E6" t="n">
-        <v>483.8069872642646</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F6" t="n">
-        <v>337.2724292911496</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G6" t="n">
-        <v>199.824552964034</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H6" t="n">
-        <v>98.84600463815764</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I6" t="n">
-        <v>52.71808759448422</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J6" t="n">
-        <v>170.7774263352076</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K6" t="n">
-        <v>237.3598989302709</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L6" t="n">
-        <v>740.3427331273811</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M6" t="n">
-        <v>1379.279198108098</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N6" t="n">
-        <v>1958.575638897798</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O6" t="n">
-        <v>2506.500878103472</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P6" t="n">
-        <v>2613.977979877467</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q6" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R6" t="n">
-        <v>2614.390233267651</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S6" t="n">
-        <v>2464.803105373095</v>
+        <v>2464.467288245464</v>
       </c>
       <c r="T6" t="n">
-        <v>2267.787695880796</v>
+        <v>2267.477992405552</v>
       </c>
       <c r="U6" t="n">
-        <v>2039.648482162597</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V6" t="n">
-        <v>1804.496373930855</v>
+        <v>1804.187096684975</v>
       </c>
       <c r="W6" t="n">
-        <v>1550.259017202653</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X6" t="n">
-        <v>1342.40751699712</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y6" t="n">
-        <v>1134.647218232166</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>853.4448232605514</v>
+        <v>221.6371024675198</v>
       </c>
       <c r="C7" t="n">
-        <v>684.5086403326445</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="D7" t="n">
-        <v>534.3920009203088</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="E7" t="n">
-        <v>386.4789073379156</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F7" t="n">
-        <v>239.5889598400053</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G7" t="n">
-        <v>70.97668332239647</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H7" t="n">
-        <v>70.97668332239647</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I7" t="n">
-        <v>70.97668332239647</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J7" t="n">
-        <v>52.71808759448422</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K7" t="n">
-        <v>153.1475318919731</v>
+        <v>153.7488491352227</v>
       </c>
       <c r="L7" t="n">
-        <v>337.1890785482319</v>
+        <v>338.581844036041</v>
       </c>
       <c r="M7" t="n">
-        <v>541.6242080628142</v>
+        <v>543.851444755279</v>
       </c>
       <c r="N7" t="n">
-        <v>746.6329435543747</v>
+        <v>749.6748095913833</v>
       </c>
       <c r="O7" t="n">
-        <v>919.9753968917072</v>
+        <v>923.7697049799822</v>
       </c>
       <c r="P7" t="n">
-        <v>1044.779129327083</v>
+        <v>1049.217281578598</v>
       </c>
       <c r="Q7" t="n">
-        <v>1047.751684421857</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="R7" t="n">
-        <v>1047.751684421857</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S7" t="n">
-        <v>1047.751684421857</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T7" t="n">
-        <v>1047.751684421857</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U7" t="n">
-        <v>1047.751684421857</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V7" t="n">
-        <v>1047.751684421857</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="W7" t="n">
-        <v>853.4448232605514</v>
+        <v>852.067697339307</v>
       </c>
       <c r="X7" t="n">
-        <v>853.4448232605514</v>
+        <v>624.0781464412896</v>
       </c>
       <c r="Y7" t="n">
-        <v>853.4448232605514</v>
+        <v>403.2855672977595</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1943.06884058015</v>
+        <v>1036.151342484749</v>
       </c>
       <c r="C8" t="n">
-        <v>1943.06884058015</v>
+        <v>1036.151342484749</v>
       </c>
       <c r="D8" t="n">
-        <v>1584.803141973399</v>
+        <v>677.885643877999</v>
       </c>
       <c r="E8" t="n">
-        <v>1199.014889375155</v>
+        <v>292.0973912797547</v>
       </c>
       <c r="F8" t="n">
-        <v>788.0289845855473</v>
+        <v>285.1518905305513</v>
       </c>
       <c r="G8" t="n">
-        <v>370.9412028219747</v>
+        <v>272.1579431506045</v>
       </c>
       <c r="H8" t="n">
-        <v>52.71808759448422</v>
+        <v>170.3340168324468</v>
       </c>
       <c r="I8" t="n">
-        <v>52.71808759448422</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J8" t="n">
-        <v>241.3579866082206</v>
+        <v>245.7854089578625</v>
       </c>
       <c r="K8" t="n">
-        <v>644.825099628266</v>
+        <v>655.913810853068</v>
       </c>
       <c r="L8" t="n">
-        <v>1033.218542125548</v>
+        <v>803.5063845754121</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.917954950956</v>
+        <v>1184.417289095157</v>
       </c>
       <c r="N8" t="n">
-        <v>1414.252167842938</v>
+        <v>1388.095490880682</v>
       </c>
       <c r="O8" t="n">
-        <v>1961.413372610015</v>
+        <v>1944.079959395602</v>
       </c>
       <c r="P8" t="n">
-        <v>2390.72841894931</v>
+        <v>2380.925457210259</v>
       </c>
       <c r="Q8" t="n">
-        <v>2635.904379724211</v>
+        <v>2631.75647342981</v>
       </c>
       <c r="R8" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="S8" t="n">
-        <v>2479.689342221039</v>
+        <v>2480.048483423636</v>
       </c>
       <c r="T8" t="n">
-        <v>2479.689342221039</v>
+        <v>2480.048483423636</v>
       </c>
       <c r="U8" t="n">
-        <v>2479.689342221039</v>
+        <v>2480.048483423636</v>
       </c>
       <c r="V8" t="n">
-        <v>2295.837495850264</v>
+        <v>2148.985596080065</v>
       </c>
       <c r="W8" t="n">
-        <v>1943.06884058015</v>
+        <v>1796.216940809951</v>
       </c>
       <c r="X8" t="n">
-        <v>1943.06884058015</v>
+        <v>1422.751182548871</v>
       </c>
       <c r="Y8" t="n">
-        <v>1943.06884058015</v>
+        <v>1422.751182548871</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>966.1397720210899</v>
+        <v>964.8336473419789</v>
       </c>
       <c r="C9" t="n">
-        <v>791.6867427399629</v>
+        <v>790.3806180608519</v>
       </c>
       <c r="D9" t="n">
-        <v>642.7523330787117</v>
+        <v>641.4462083996007</v>
       </c>
       <c r="E9" t="n">
-        <v>483.5148780732562</v>
+        <v>482.2087533941451</v>
       </c>
       <c r="F9" t="n">
-        <v>336.9803201001412</v>
+        <v>335.67419542103</v>
       </c>
       <c r="G9" t="n">
-        <v>199.5389224593631</v>
+        <v>198.2613855341748</v>
       </c>
       <c r="H9" t="n">
-        <v>98.62294460416773</v>
+        <v>97.62150519712884</v>
       </c>
       <c r="I9" t="n">
-        <v>52.71808759448422</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J9" t="n">
-        <v>171.3773394513799</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K9" t="n">
-        <v>500.8057437571898</v>
+        <v>386.6537549023825</v>
       </c>
       <c r="L9" t="n">
-        <v>638.0353417728837</v>
+        <v>572.8528145025767</v>
       </c>
       <c r="M9" t="n">
-        <v>817.5326781274886</v>
+        <v>759.4494903514524</v>
       </c>
       <c r="N9" t="n">
-        <v>1469.919012109231</v>
+        <v>1411.623369654161</v>
       </c>
       <c r="O9" t="n">
-        <v>2019.355020861954</v>
+        <v>1967.725777395039</v>
       </c>
       <c r="P9" t="n">
-        <v>2404.349688975046</v>
+        <v>2397.043918783987</v>
       </c>
       <c r="Q9" t="n">
-        <v>2635.063145035514</v>
+        <v>2631.333957441672</v>
       </c>
       <c r="R9" t="n">
-        <v>2613.9512454377</v>
+        <v>2611.997006284786</v>
       </c>
       <c r="S9" t="n">
-        <v>2464.484456300335</v>
+        <v>2463.061222138049</v>
       </c>
       <c r="T9" t="n">
-        <v>2267.495160460423</v>
+        <v>2266.187155008028</v>
       </c>
       <c r="U9" t="n">
-        <v>2039.356372971589</v>
+        <v>2038.050248292478</v>
       </c>
       <c r="V9" t="n">
-        <v>1804.204264739846</v>
+        <v>1802.898140060735</v>
       </c>
       <c r="W9" t="n">
-        <v>1549.966908011645</v>
+        <v>1548.660783332534</v>
       </c>
       <c r="X9" t="n">
-        <v>1342.115407806112</v>
+        <v>1340.809283127001</v>
       </c>
       <c r="Y9" t="n">
-        <v>1134.355109041158</v>
+        <v>1133.048984362047</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>650.2117250800591</v>
+        <v>221.6371024675198</v>
       </c>
       <c r="C10" t="n">
-        <v>481.2755421521522</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="D10" t="n">
-        <v>331.1589027398164</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="E10" t="n">
-        <v>183.2458091574233</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F10" t="n">
-        <v>52.71808759448422</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G10" t="n">
-        <v>52.71808759448422</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H10" t="n">
-        <v>52.71808759448422</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I10" t="n">
-        <v>52.71808759448422</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J10" t="n">
-        <v>52.71808759448422</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K10" t="n">
-        <v>153.766017190094</v>
+        <v>156.4779680624833</v>
       </c>
       <c r="L10" t="n">
-        <v>338.5990120909124</v>
+        <v>344.8032955874348</v>
       </c>
       <c r="M10" t="n">
-        <v>543.8686128101504</v>
+        <v>553.7550713976552</v>
       </c>
       <c r="N10" t="n">
-        <v>749.6919776462546</v>
+        <v>763.1730574311443</v>
       </c>
       <c r="O10" t="n">
-        <v>923.7868730348534</v>
+        <v>940.5881673018284</v>
       </c>
       <c r="P10" t="n">
-        <v>1049.234449633469</v>
+        <v>1068.876760974644</v>
       </c>
       <c r="Q10" t="n">
-        <v>1052.652769053829</v>
+        <v>1074.262053355802</v>
       </c>
       <c r="R10" t="n">
-        <v>1052.652769053829</v>
+        <v>1074.262053355802</v>
       </c>
       <c r="S10" t="n">
-        <v>1052.652769053829</v>
+        <v>1074.262053355802</v>
       </c>
       <c r="T10" t="n">
-        <v>1052.652769053829</v>
+        <v>1074.262053355802</v>
       </c>
       <c r="U10" t="n">
-        <v>1052.652769053829</v>
+        <v>1074.262053355802</v>
       </c>
       <c r="V10" t="n">
-        <v>1052.652769053829</v>
+        <v>819.5775651499151</v>
       </c>
       <c r="W10" t="n">
-        <v>1052.652769053829</v>
+        <v>530.1603951129546</v>
       </c>
       <c r="X10" t="n">
-        <v>1052.652769053829</v>
+        <v>302.1708442149372</v>
       </c>
       <c r="Y10" t="n">
-        <v>831.8601899102988</v>
+        <v>221.6371024675198</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2266.424947555044</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>841.9378825128755</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3602.609239333931</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4150.91518802128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3043.164119594978</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2653.024787619166</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>423.3203657894393</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>914.0526986331906</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1970.572950536136</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1018.438627038652</v>
+        <v>714.8515691656033</v>
       </c>
       <c r="C13" t="n">
-        <v>849.5024441107454</v>
+        <v>714.8515691656033</v>
       </c>
       <c r="D13" t="n">
-        <v>699.3858046984096</v>
+        <v>564.7349297532676</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>548.7884825109817</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>401.8985350130713</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.2863919474</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V13" t="n">
-        <v>1938.2863919474</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W13" t="n">
-        <v>1648.869221910439</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X13" t="n">
-        <v>1420.879671012422</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y13" t="n">
-        <v>1200.087091868892</v>
+        <v>896.5000339958431</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>841.9378825128758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>570.9683475412852</v>
       </c>
       <c r="L15" t="n">
-        <v>680.0291294438176</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2275.8149980365</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>868.6673633290469</v>
+        <v>850.9945487488452</v>
       </c>
       <c r="C16" t="n">
-        <v>699.73118040114</v>
+        <v>682.0583658209383</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888043</v>
+        <v>531.9417264086026</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>384.0286328262094</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>237.1386853282991</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>237.1386853282991</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>95.26596836672948</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>819.1842911693323</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2025.52680186348</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>2025.52680186348</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1770.842313657593</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1481.425143620632</v>
       </c>
       <c r="X16" t="n">
-        <v>1089.459942472577</v>
+        <v>1253.435592722615</v>
       </c>
       <c r="Y16" t="n">
-        <v>868.6673633290469</v>
+        <v>1032.643013579085</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5509,58 +5509,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516145</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951537</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>868.6673633290468</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1729.097755135313</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1729.097755135313</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5773,28 +5773,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057244</v>
+        <v>1089.917939501689</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>920.9817565737817</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>770.8651171614459</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>622.9520235790528</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>476.0620760811424</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5937,25 +5937,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2420.562808876161</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U22" t="n">
-        <v>2131.487582220359</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V22" t="n">
-        <v>1876.803094014472</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W22" t="n">
-        <v>1587.385923977512</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="X22" t="n">
-        <v>1359.396373079494</v>
+        <v>1492.358983475458</v>
       </c>
       <c r="Y22" t="n">
-        <v>1138.603793935964</v>
+        <v>1271.566404331928</v>
       </c>
     </row>
     <row r="23">
@@ -5980,22 +5980,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>297.8113689946113</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>130.6152697094912</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="26">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.5477693179085</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>593.6115863900017</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>443.4949469776659</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>295.5818533952728</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>148.6919058973624</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6463,10 +6463,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>633.9926444679666</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6709,43 +6709,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D34" t="n">
-        <v>343.0994656851783</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E34" t="n">
-        <v>343.0994656851783</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7174,10 +7174,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
         <v>484.8112968429803</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="41">
@@ -7402,28 +7402,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>265.2965862711234</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>410.9118391044061</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.839178026546833</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>28.32808613262446</v>
       </c>
       <c r="N3" t="n">
-        <v>459.9808678792267</v>
+        <v>458.0981188384287</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>45.42368237240552</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8230,10 +8230,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>368.9308216532274</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>30.21968338400282</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>167.9634363311155</v>
       </c>
       <c r="N6" t="n">
-        <v>386.1526929377702</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8458,10 +8458,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>251.5805925818474</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>186.885142186986</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -8531,25 +8531,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>3.559298518862064</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>43.3189956352989</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>458.3127195243206</v>
+        <v>450.7372724889942</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>279.0960005917105</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>50.29152613729178</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>79.42624789262527</v>
+        <v>130.6469798767061</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>50.29152613729153</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>79.37477505516657</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>105.058398071027</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>103.8640922513196</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>40.30478226780019</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>8.661728554219394</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>191.2691783702298</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405078</v>
+        <v>103.8640922513198</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>111.1976478713722</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9259388694759139</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>30.95754073885493</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>61.40075786968296</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25599,22 +25599,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>997991.8175322866</v>
+        <v>997628.420368045</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>997991.8175322866</v>
+        <v>997628.420368045</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>997643.6390683223</v>
+        <v>996032.5432032966</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>933708.0853286183</v>
+        <v>928571.2330688467</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>933708.0853286182</v>
+        <v>928571.2330688467</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>933708.0853286183</v>
+        <v>933708.0853286182</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>933708.0853286182</v>
+        <v>933708.0853286181</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>933708.0853286182</v>
+        <v>933708.0853286181</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>933708.0853286182</v>
+        <v>933708.0853286181</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>933708.0853286183</v>
+        <v>933708.0853286182</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>933708.0853286182</v>
+        <v>933708.0853286181</v>
       </c>
     </row>
     <row r="16">
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185703</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185704</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
+        <v>481607.8629828184</v>
+      </c>
+      <c r="F2" t="n">
+        <v>481607.8629828185</v>
+      </c>
+      <c r="G2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="H2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="J2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
         <v>484287.9598140037</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
         <v>484287.9598140037</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>484287.9598140036</v>
-      </c>
-      <c r="J2" t="n">
-        <v>484287.9598140035</v>
-      </c>
-      <c r="K2" t="n">
-        <v>484287.9598140036</v>
-      </c>
-      <c r="L2" t="n">
-        <v>484287.9598140035</v>
-      </c>
-      <c r="M2" t="n">
-        <v>484287.9598140037</v>
       </c>
       <c r="N2" t="n">
         <v>484287.9598140036</v>
@@ -26355,7 +26355,7 @@
         <v>484287.9598140036</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>789845.9331222398</v>
+        <v>792647.413710985</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2553.74144847562</v>
+        <v>11268.60111879607</v>
       </c>
       <c r="E3" t="n">
-        <v>775624.2722329925</v>
+        <v>753384.8560707825</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.535601535986644e-10</v>
+        <v>11167.23623557898</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172417.1413821404</v>
+        <v>172360.9924002808</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128024.1174663868</v>
+        <v>124946.8475185311</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3023.297977224638</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184436.3405408961</v>
+        <v>183955.1029744945</v>
       </c>
       <c r="C4" t="n">
-        <v>184436.3405408961</v>
+        <v>183955.1029744945</v>
       </c>
       <c r="D4" t="n">
-        <v>183932.5854660025</v>
+        <v>181823.6926234225</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695052</v>
+        <v>6280.9479104697</v>
       </c>
       <c r="F4" t="n">
+        <v>6280.9479104697</v>
+      </c>
+      <c r="G4" t="n">
         <v>6287.480531695051</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6287.480531695052</v>
       </c>
       <c r="H4" t="n">
         <v>6287.480531695052</v>
@@ -26459,7 +26459,7 @@
         <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695093</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86566.12012538439</v>
+        <v>86618.07783747559</v>
       </c>
       <c r="C5" t="n">
-        <v>86566.12012538439</v>
+        <v>86618.07783747559</v>
       </c>
       <c r="D5" t="n">
-        <v>86631.12555917782</v>
+        <v>86904.91983724412</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-568223.3318699503</v>
+        <v>-570595.5326043848</v>
       </c>
       <c r="C6" t="n">
-        <v>221622.6012522895</v>
+        <v>222051.8811066003</v>
       </c>
       <c r="D6" t="n">
-        <v>219507.609444914</v>
+        <v>212627.8483391071</v>
       </c>
       <c r="E6" t="n">
-        <v>-399093.7020289481</v>
+        <v>-378245.9745078379</v>
       </c>
       <c r="F6" t="n">
-        <v>376530.5702040446</v>
+        <v>375138.8815629449</v>
       </c>
       <c r="G6" t="n">
-        <v>376530.5702040442</v>
+        <v>365675.9752973867</v>
       </c>
       <c r="H6" t="n">
-        <v>376530.5702040449</v>
+        <v>376843.2115329657</v>
       </c>
       <c r="I6" t="n">
-        <v>376530.5702040444</v>
+        <v>376843.2115329656</v>
       </c>
       <c r="J6" t="n">
-        <v>204113.428821904</v>
+        <v>204482.2191326848</v>
       </c>
       <c r="K6" t="n">
-        <v>376530.5702040445</v>
+        <v>376843.2115329658</v>
       </c>
       <c r="L6" t="n">
-        <v>376530.5702040443</v>
+        <v>376843.2115329658</v>
       </c>
       <c r="M6" t="n">
-        <v>248506.4527376578</v>
+        <v>251896.3640144345</v>
       </c>
       <c r="N6" t="n">
-        <v>376530.5702040445</v>
+        <v>376843.2115329657</v>
       </c>
       <c r="O6" t="n">
-        <v>376530.5702040445</v>
+        <v>373819.9135557411</v>
       </c>
       <c r="P6" t="n">
-        <v>376530.5702040445</v>
+        <v>376843.2115329657</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053388</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="C3" t="n">
-        <v>590.4941997053388</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>593.4761003380651</v>
+        <v>606.6339902357034</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310527</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="C4" t="n">
-        <v>658.9760949310527</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="D4" t="n">
-        <v>658.9760949310527</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="E4" t="n">
+        <v>1160.145290326006</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1160.145290326006</v>
+      </c>
+      <c r="G4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053388</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.981900632726251</v>
+        <v>13.15788989763837</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>751.4070584806824</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>9.934451625288148</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310527</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.732193168596</v>
+        <v>501.3837960808457</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310528</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.732193168596</v>
+        <v>501.383796080846</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310527</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.732193168596</v>
+        <v>501.3837960808457</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>315.1636514716172</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118.958190538687</v>
+        <v>66.92927500627179</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>281.3593199551393</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>15.87255913156409</v>
       </c>
       <c r="G4" t="n">
-        <v>158.534323411079</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.75990484659</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
-        <v>123.4282648842212</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.4149600371268</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>205.4595917937733</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3958800207158</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>326.9179172627877</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>315.1636514716172</v>
+        <v>309.3164977167495</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.7043385723319</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1557452255192</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>152.75990484659</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>123.4282648842212</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.4149600371268</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>205.4595917937733</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3958800207158</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2609479597986</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>94.15920578689833</v>
+        <v>87.96077371353681</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>213.6934754527452</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>212.4203107007875</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>251.1505545391175</v>
       </c>
       <c r="V8" t="n">
-        <v>145.7389305630676</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>16.19860367562154</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>166.8970492121321</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>152.5011390246442</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>122.5530119813614</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>16.01831877137663</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>128.1063140705172</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>204.9523790323519</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>223.271524257613</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>286.2593604394185</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>138.8562490221515</v>
       </c>
     </row>
     <row r="11">
@@ -30765,7 +30765,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="45">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.373846028966184</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H2" t="n">
-        <v>24.31115064414994</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I2" t="n">
-        <v>91.51769903171892</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J2" t="n">
-        <v>201.4772144009689</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K2" t="n">
-        <v>301.9621168071075</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L2" t="n">
-        <v>374.6107072160814</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M2" t="n">
-        <v>416.8265915337088</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N2" t="n">
-        <v>423.571281563509</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O2" t="n">
-        <v>399.9663501129765</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P2" t="n">
-        <v>341.3620262728738</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q2" t="n">
-        <v>256.3486653605222</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R2" t="n">
-        <v>149.1161056170472</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>54.09401638506698</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T2" t="n">
-        <v>10.39151099179948</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1899076823172947</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.2701195993662</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H3" t="n">
-        <v>12.26668139387883</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>43.7299949781784</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J3" t="n">
-        <v>119.9984486401199</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K3" t="n">
-        <v>205.0964617976553</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L3" t="n">
-        <v>275.7775033623849</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M3" t="n">
-        <v>321.8193388394096</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N3" t="n">
-        <v>330.3369391351593</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O3" t="n">
-        <v>302.193762749203</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P3" t="n">
-        <v>242.5371364789721</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.1296527190961</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R3" t="n">
-        <v>78.85882916064887</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S3" t="n">
-        <v>23.59191448822744</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T3" t="n">
-        <v>5.119473297445341</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0835604999583027</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.064825606026021</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H4" t="n">
-        <v>9.467267660849537</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I4" t="n">
-        <v>32.02221004303707</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J4" t="n">
-        <v>75.28317034603965</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K4" t="n">
-        <v>123.7133749546595</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L4" t="n">
-        <v>158.3105269177231</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M4" t="n">
-        <v>166.9162538609698</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N4" t="n">
-        <v>162.9473584203274</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O4" t="n">
-        <v>150.5082592953871</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P4" t="n">
-        <v>128.7858169324561</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.16462415550616</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R4" t="n">
-        <v>47.8784313400427</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S4" t="n">
-        <v>18.55700624319892</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T4" t="n">
-        <v>4.549709407565723</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05808139669232847</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.373846028966184</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H5" t="n">
-        <v>24.31115064414994</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I5" t="n">
-        <v>91.51769903171892</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J5" t="n">
-        <v>201.4772144009689</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K5" t="n">
-        <v>301.9621168071075</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L5" t="n">
-        <v>374.6107072160814</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M5" t="n">
-        <v>416.8265915337088</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N5" t="n">
-        <v>423.571281563509</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O5" t="n">
-        <v>399.9663501129765</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P5" t="n">
-        <v>341.3620262728738</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q5" t="n">
-        <v>256.3486653605222</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R5" t="n">
-        <v>149.1161056170472</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>54.09401638506698</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T5" t="n">
-        <v>10.39151099179948</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1899076823172947</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.2701195993662</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H6" t="n">
-        <v>12.26668139387883</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I6" t="n">
-        <v>43.7299949781784</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J6" t="n">
-        <v>119.9984486401199</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K6" t="n">
-        <v>205.0964617976553</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L6" t="n">
-        <v>275.7775033623849</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M6" t="n">
-        <v>321.8193388394096</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N6" t="n">
-        <v>330.3369391351593</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O6" t="n">
-        <v>302.193762749203</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P6" t="n">
-        <v>242.5371364789721</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.1296527190961</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R6" t="n">
-        <v>78.85882916064887</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S6" t="n">
-        <v>23.59191448822744</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T6" t="n">
-        <v>5.119473297445341</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0835604999583027</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.064825606026021</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H7" t="n">
-        <v>9.467267660849537</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I7" t="n">
-        <v>32.02221004303707</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J7" t="n">
-        <v>75.28317034603965</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K7" t="n">
-        <v>123.7133749546595</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L7" t="n">
-        <v>158.3105269177231</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M7" t="n">
-        <v>166.9162538609698</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N7" t="n">
-        <v>162.9473584203274</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O7" t="n">
-        <v>150.5082592953871</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P7" t="n">
-        <v>128.7858169324561</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.16462415550616</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R7" t="n">
-        <v>47.8784313400427</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S7" t="n">
-        <v>18.55700624319892</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T7" t="n">
-        <v>4.549709407565723</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05808139669232847</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.38583356919825</v>
+        <v>2.438729608987751</v>
       </c>
       <c r="H8" t="n">
-        <v>24.43391804055158</v>
+        <v>24.97563960804581</v>
       </c>
       <c r="I8" t="n">
-        <v>91.97984867651562</v>
+        <v>94.01912325050034</v>
       </c>
       <c r="J8" t="n">
-        <v>202.4946418937401</v>
+        <v>206.9841271508243</v>
       </c>
       <c r="K8" t="n">
-        <v>303.4869768779021</v>
+        <v>310.2155514992758</v>
       </c>
       <c r="L8" t="n">
-        <v>376.5024309712531</v>
+        <v>384.8498227703348</v>
       </c>
       <c r="M8" t="n">
-        <v>418.9314987074825</v>
+        <v>428.2195804541707</v>
       </c>
       <c r="N8" t="n">
-        <v>425.710248335967</v>
+        <v>435.1486209557071</v>
       </c>
       <c r="O8" t="n">
-        <v>401.9861157822519</v>
+        <v>410.8985034063352</v>
       </c>
       <c r="P8" t="n">
-        <v>343.0858495426701</v>
+        <v>350.6923661844501</v>
       </c>
       <c r="Q8" t="n">
-        <v>257.6431848457577</v>
+        <v>263.3553620625761</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>153.1918488005769</v>
       </c>
       <c r="S8" t="n">
-        <v>54.36718245810517</v>
+        <v>55.57255096480842</v>
       </c>
       <c r="T8" t="n">
-        <v>10.44398644916534</v>
+        <v>10.67553886334388</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.19509836871902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.276533498840366</v>
+        <v>1.304835375223966</v>
       </c>
       <c r="H9" t="n">
-        <v>12.32862615985301</v>
+        <v>12.60196270282094</v>
       </c>
       <c r="I9" t="n">
-        <v>43.95082441182841</v>
+        <v>44.92525305047427</v>
       </c>
       <c r="J9" t="n">
-        <v>120.6044214847383</v>
+        <v>123.2783281478046</v>
       </c>
       <c r="K9" t="n">
-        <v>206.1321659070429</v>
+        <v>210.7022982878103</v>
       </c>
       <c r="L9" t="n">
-        <v>277.1701353512822</v>
+        <v>283.3152423265897</v>
       </c>
       <c r="M9" t="n">
-        <v>323.4444746842454</v>
+        <v>330.6155246784583</v>
       </c>
       <c r="N9" t="n">
-        <v>332.0050874900653</v>
+        <v>339.3659338394998</v>
       </c>
       <c r="O9" t="n">
-        <v>303.7197925947077</v>
+        <v>310.4535289463793</v>
       </c>
       <c r="P9" t="n">
-        <v>243.7619099671574</v>
+        <v>249.1663270460571</v>
       </c>
       <c r="Q9" t="n">
-        <v>162.9483813607457</v>
+        <v>166.5610910549049</v>
       </c>
       <c r="R9" t="n">
-        <v>79.25705355080804</v>
+        <v>81.01425250732662</v>
       </c>
       <c r="S9" t="n">
-        <v>23.71104985784626</v>
+        <v>24.23674479856795</v>
       </c>
       <c r="T9" t="n">
-        <v>5.145325813308317</v>
+        <v>5.259402236100106</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.08584443258052411</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.070202803888314</v>
+        <v>1.093930146326678</v>
       </c>
       <c r="H10" t="n">
-        <v>9.515075838207016</v>
+        <v>9.726033482795382</v>
       </c>
       <c r="I10" t="n">
-        <v>32.18391704784131</v>
+        <v>32.89746294589684</v>
       </c>
       <c r="J10" t="n">
-        <v>75.66333823490379</v>
+        <v>77.34086134529615</v>
       </c>
       <c r="K10" t="n">
-        <v>124.3381075790241</v>
+        <v>127.0947933641359</v>
       </c>
       <c r="L10" t="n">
-        <v>159.1099695889954</v>
+        <v>162.6375783002409</v>
       </c>
       <c r="M10" t="n">
-        <v>167.7591540676927</v>
+        <v>171.4785228464628</v>
       </c>
       <c r="N10" t="n">
-        <v>163.7702163441091</v>
+        <v>167.4011468465181</v>
       </c>
       <c r="O10" t="n">
-        <v>151.2683017714137</v>
+        <v>154.62205377352</v>
       </c>
       <c r="P10" t="n">
-        <v>129.436164572092</v>
+        <v>132.3058787884557</v>
       </c>
       <c r="Q10" t="n">
-        <v>89.61489115104783</v>
+        <v>91.60173252559122</v>
       </c>
       <c r="R10" t="n">
-        <v>48.12020970937817</v>
+        <v>49.18707730665226</v>
       </c>
       <c r="S10" t="n">
-        <v>18.65071613685361</v>
+        <v>19.06421900462038</v>
       </c>
       <c r="T10" t="n">
-        <v>4.572684707522795</v>
+        <v>4.674065170668533</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.05966891707236433</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>600.5355480942598</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31864,16 +31864,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>242.2322097768141</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>414.6448185524866</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>638.0665277849414</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,31 +32548,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>189.5279250463564</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K2" t="n">
-        <v>406.0176783332917</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L2" t="n">
-        <v>404.1408785172176</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M2" t="n">
-        <v>186.4803583064361</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N2" t="n">
-        <v>194.1582179669181</v>
+        <v>607.2090238437822</v>
       </c>
       <c r="O2" t="n">
-        <v>550.6683199540352</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P2" t="n">
-        <v>431.9277386890869</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q2" t="n">
-        <v>246.3579661459774</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>67.25502282329629</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L3" t="n">
-        <v>508.0634688859699</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M3" t="n">
-        <v>645.3903686673912</v>
+        <v>209.6385268948515</v>
       </c>
       <c r="N3" t="n">
-        <v>658.9760949310527</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O3" t="n">
-        <v>553.459837581488</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P3" t="n">
-        <v>153.9864114370474</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.14787863307455</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>101.4438831287766</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L4" t="n">
-        <v>185.9005521780393</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M4" t="n">
-        <v>206.5001308228103</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N4" t="n">
-        <v>207.079530799556</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O4" t="n">
-        <v>175.0933872094267</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P4" t="n">
-        <v>126.0643761973496</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.002580903811776</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>20.43130987428259</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>81.87226576212697</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>556.5055067965446</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>635.9938917992686</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>631.5051423789023</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>538.7989603445172</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P5" t="n">
-        <v>110.1290305176042</v>
+        <v>142.0725371714034</v>
       </c>
       <c r="Q5" t="n">
-        <v>34.04297548607272</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.251857313862</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>67.25502282329629</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>508.0634688859699</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>645.3903686673912</v>
+        <v>349.2738770933425</v>
       </c>
       <c r="N6" t="n">
-        <v>585.1479199895962</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O6" t="n">
-        <v>553.459837581488</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>108.5627290646419</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.14787863307455</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>101.4438831287766</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L7" t="n">
-        <v>185.9005521780393</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M7" t="n">
-        <v>206.5001308228103</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N7" t="n">
-        <v>207.079530799556</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O7" t="n">
-        <v>175.0933872094267</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P7" t="n">
-        <v>126.0643761973496</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.002580903811776</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>195.0348377962118</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>414.27111302546</v>
       </c>
       <c r="L8" t="n">
-        <v>392.3166085831132</v>
+        <v>149.0834078003476</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>384.758489413884</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>205.7355573591162</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>561.6004732473938</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>441.2580786006632</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>253.3646628480313</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>3.322730859427253</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>337.3260963260299</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>188.0798581820144</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>188.48149075644</v>
       </c>
       <c r="N9" t="n">
-        <v>658.9760949310527</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>561.7196037786644</v>
       </c>
       <c r="P9" t="n">
-        <v>388.8835031445377</v>
+        <v>433.6546882716641</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>236.6566047047324</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,25 +35333,25 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>102.0686157531412</v>
+        <v>104.825301538253</v>
       </c>
       <c r="L10" t="n">
-        <v>186.6999948493115</v>
+        <v>190.227603560557</v>
       </c>
       <c r="M10" t="n">
-        <v>207.3430310295333</v>
+        <v>211.0623998083034</v>
       </c>
       <c r="N10" t="n">
-        <v>207.9023887233377</v>
+        <v>211.5333192257467</v>
       </c>
       <c r="O10" t="n">
-        <v>175.8534296854534</v>
+        <v>179.2071816875597</v>
       </c>
       <c r="P10" t="n">
-        <v>126.7147238369855</v>
+        <v>129.5844380533491</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.452847899353443</v>
+        <v>5.439689273896832</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>469.1938360109265</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>103.6778299969399</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>272.5107846304683</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>506.7248157016081</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36126,7 +36126,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36612,13 +36612,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36852,7 +36852,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -37077,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37320,7 +37320,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
